--- a/Code/Results/Cases/Case_4_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_4/res_line/pl_mw.xlsx
@@ -412,7 +412,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.541151791093341</v>
+        <v>2.541151791093114</v>
       </c>
       <c r="C2">
         <v>2.362903306049418</v>
@@ -430,10 +430,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9.636797905649871</v>
+        <v>9.6367979056499</v>
       </c>
       <c r="I2">
-        <v>0.01371817896727823</v>
+        <v>0.01371817896728</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -453,13 +453,13 @@
         <v>2.141364273798445</v>
       </c>
       <c r="C3">
-        <v>2.016430396525266</v>
+        <v>2.016430396525209</v>
       </c>
       <c r="D3">
-        <v>0.2078861585131477</v>
+        <v>0.2078861585131051</v>
       </c>
       <c r="E3">
-        <v>0.08694253122535756</v>
+        <v>0.08694253122535045</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,10 +468,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8.379045296390274</v>
+        <v>8.379045296390075</v>
       </c>
       <c r="I3">
-        <v>0.01228558212155839</v>
+        <v>0.01228558212160191</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.9667100809834466</v>
+        <v>0.9667100809833826</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.908567159154586</v>
+        <v>1.908567159154615</v>
       </c>
       <c r="C4">
-        <v>1.811844629247275</v>
+        <v>1.811844629247332</v>
       </c>
       <c r="D4">
-        <v>0.1881810741355849</v>
+        <v>0.1881810741349597</v>
       </c>
       <c r="E4">
-        <v>0.07961708995175343</v>
+        <v>0.07961708995174988</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,10 +506,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.631481643445767</v>
+        <v>7.631481643445682</v>
       </c>
       <c r="I4">
-        <v>0.01143583449256358</v>
+        <v>0.0114358344926071</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.868453078450699</v>
+        <v>0.8684530784506705</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,13 +529,13 @@
         <v>1.816342450515236</v>
       </c>
       <c r="C5">
-        <v>1.730164529125261</v>
+        <v>1.730164529125375</v>
       </c>
       <c r="D5">
-        <v>0.1803195742305235</v>
+        <v>0.180319574230694</v>
       </c>
       <c r="E5">
-        <v>0.0766907041938083</v>
+        <v>0.07669070419370172</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,10 +544,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.331914280536722</v>
+        <v>7.331914280536836</v>
       </c>
       <c r="I5">
-        <v>0.01109578917411369</v>
+        <v>0.0110957891741128</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.8293491664095427</v>
+        <v>0.8293491664095214</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.801173945092614</v>
+        <v>1.801173945092842</v>
       </c>
       <c r="C6">
-        <v>1.716694284690448</v>
+        <v>1.716694284690504</v>
       </c>
       <c r="D6">
-        <v>0.1790234694358332</v>
+        <v>0.179023469435748</v>
       </c>
       <c r="E6">
-        <v>0.07620802794085435</v>
+        <v>0.07620802794071935</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,10 +582,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.28244758497766</v>
+        <v>7.282447584977575</v>
       </c>
       <c r="I6">
-        <v>0.01103966768963627</v>
+        <v>0.01103966768961939</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.8229075639106895</v>
+        <v>0.8229075639106966</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.907313341515817</v>
+        <v>1.907313341516129</v>
       </c>
       <c r="C7">
-        <v>1.810736651630521</v>
+        <v>1.810736651631373</v>
       </c>
       <c r="D7">
-        <v>0.1880744096610556</v>
+        <v>0.1880744096609703</v>
       </c>
       <c r="E7">
-        <v>0.07957739955958942</v>
+        <v>0.07957739955960363</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.627422420530479</v>
+        <v>7.627422420530593</v>
       </c>
       <c r="I7">
-        <v>0.01143122483035874</v>
+        <v>0.01143122483036763</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.8679221467525835</v>
+        <v>0.867922146752548</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.400315523756774</v>
+        <v>2.400315523756262</v>
       </c>
       <c r="C8">
         <v>2.241511964624181</v>
       </c>
       <c r="D8">
-        <v>0.2295822909958787</v>
+        <v>0.2295822909959355</v>
       </c>
       <c r="E8">
-        <v>0.09499222009545605</v>
+        <v>0.09499222009534947</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,10 +658,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9.197251282921826</v>
+        <v>9.197251282921712</v>
       </c>
       <c r="I8">
-        <v>0.01321718404530703</v>
+        <v>0.01321718404536654</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.075287868103544</v>
+        <v>1.075287868103516</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.498583759373673</v>
+        <v>3.498583759373332</v>
       </c>
       <c r="C9">
-        <v>3.171168373339754</v>
+        <v>3.171168373340436</v>
       </c>
       <c r="D9">
-        <v>0.3192495435775697</v>
+        <v>0.3192495435779961</v>
       </c>
       <c r="E9">
-        <v>0.1280810957441538</v>
+        <v>0.1280810957442142</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,10 +696,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12.53536347853901</v>
+        <v>12.53536347853884</v>
       </c>
       <c r="I9">
-        <v>0.01702756526436566</v>
+        <v>0.01702756526437454</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.528277266351537</v>
+        <v>1.528277266351438</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.443245428792864</v>
+        <v>4.443245428793375</v>
       </c>
       <c r="C10">
-        <v>3.943328359497798</v>
+        <v>3.943328359496775</v>
       </c>
       <c r="D10">
-        <v>0.3936446097276018</v>
+        <v>0.3936446097275592</v>
       </c>
       <c r="E10">
-        <v>0.1553074217582981</v>
+        <v>0.1553074217582306</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,10 +734,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15.26242418167652</v>
+        <v>15.26242418167658</v>
       </c>
       <c r="I10">
-        <v>0.02014410909881548</v>
+        <v>0.02014410909888653</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.909270269367468</v>
+        <v>1.909270269367511</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.922237555883328</v>
+        <v>4.922237555883498</v>
       </c>
       <c r="C11">
-        <v>4.326370126188465</v>
+        <v>4.326370126189317</v>
       </c>
       <c r="D11">
-        <v>0.4304836868444113</v>
+        <v>0.4304836868437008</v>
       </c>
       <c r="E11">
-        <v>0.1687095695346557</v>
+        <v>0.1687095695346699</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,10 +772,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>16.60064975823281</v>
+        <v>16.60064975823275</v>
       </c>
       <c r="I11">
-        <v>0.02167278858000721</v>
+        <v>0.02167278858002675</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2.099686221919768</v>
+        <v>2.099686221919754</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.113111433661345</v>
+        <v>5.113111433661629</v>
       </c>
       <c r="C12">
-        <v>4.477522135975846</v>
+        <v>4.477522135974596</v>
       </c>
       <c r="D12">
-        <v>0.4450052909202782</v>
+        <v>0.445005290919994</v>
       </c>
       <c r="E12">
-        <v>0.1739775333974265</v>
+        <v>0.1739775333974194</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,10 +810,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>17.12608174651615</v>
+        <v>17.12608174651587</v>
       </c>
       <c r="I12">
-        <v>0.02227272446090822</v>
+        <v>0.02227272446096329</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.071532596423651</v>
+        <v>5.071532596423822</v>
       </c>
       <c r="C13">
-        <v>4.444666574211055</v>
+        <v>4.444666574211794</v>
       </c>
       <c r="D13">
-        <v>0.4418495660573853</v>
+        <v>0.4418495660570159</v>
       </c>
       <c r="E13">
-        <v>0.172833472344827</v>
+        <v>0.1728334723448626</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>17.01199736397137</v>
       </c>
       <c r="I13">
-        <v>0.02214247901615174</v>
+        <v>0.02214247901624233</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>2.158673540727236</v>
+        <v>2.158673540727293</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,13 +871,13 @@
         <v>4.937733509719237</v>
       </c>
       <c r="C14">
-        <v>4.3386723029775</v>
+        <v>4.338672302976988</v>
       </c>
       <c r="D14">
-        <v>0.4316659393718112</v>
+        <v>0.4316659393724649</v>
       </c>
       <c r="E14">
-        <v>0.1691387734478269</v>
+        <v>0.1691387734479122</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,10 +886,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16.64347039335433</v>
+        <v>16.64347039335468</v>
       </c>
       <c r="I14">
-        <v>0.02172168763770621</v>
+        <v>0.02172168763777371</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>2.105816667829814</v>
+        <v>2.10581666782987</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.857100841344618</v>
+        <v>4.857100841344732</v>
       </c>
       <c r="C15">
-        <v>4.274597846846177</v>
+        <v>4.274597846846461</v>
       </c>
       <c r="D15">
-        <v>0.4255076600792052</v>
+        <v>0.425507660079262</v>
       </c>
       <c r="E15">
-        <v>0.1669024563729131</v>
+        <v>0.1669024563728883</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>16.42033541149539</v>
+        <v>16.42033541149533</v>
       </c>
       <c r="I15">
-        <v>0.0214668663462696</v>
+        <v>0.02146686634629802</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>2.073896957120468</v>
+        <v>2.073896957120496</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.413119301042457</v>
+        <v>4.413119301042116</v>
       </c>
       <c r="C16">
-        <v>3.919053794858655</v>
+        <v>3.919053794858598</v>
       </c>
       <c r="D16">
-        <v>0.3913082799285093</v>
+        <v>0.3913082799280971</v>
       </c>
       <c r="E16">
-        <v>0.1544556421213592</v>
+        <v>0.1544556421213095</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>15.17729287901898</v>
+        <v>15.17729287901903</v>
       </c>
       <c r="I16">
-        <v>0.02004683543936636</v>
+        <v>0.02004683543941255</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.154819373806106</v>
+        <v>4.154819373806333</v>
       </c>
       <c r="C17">
-        <v>3.710006279379343</v>
+        <v>3.710006279380309</v>
       </c>
       <c r="D17">
-        <v>0.3711807806422911</v>
+        <v>0.37118078064222</v>
       </c>
       <c r="E17">
-        <v>0.1471087210968207</v>
+        <v>0.1471087210967106</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,10 +1000,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>14.4425588946568</v>
+        <v>14.44255889465694</v>
       </c>
       <c r="I17">
-        <v>0.01920721738764186</v>
+        <v>0.01920721738761344</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.793732083359018</v>
+        <v>1.793732083358975</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,13 +1023,13 @@
         <v>4.010704801309998</v>
       </c>
       <c r="C18">
-        <v>3.59264244545443</v>
+        <v>3.592642445456022</v>
       </c>
       <c r="D18">
-        <v>0.3598753271251951</v>
+        <v>0.3598753271242146</v>
       </c>
       <c r="E18">
-        <v>0.1429751337325271</v>
+        <v>0.1429751337325307</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>14.02880187020278</v>
+        <v>14.0288018702025</v>
       </c>
       <c r="I18">
-        <v>0.0187343480797626</v>
+        <v>0.0187343480797022</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.735747772082803</v>
+        <v>1.73574777208276</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.962615124695617</v>
+        <v>3.962615124695276</v>
       </c>
       <c r="C19">
-        <v>3.553360641090705</v>
+        <v>3.553360641089455</v>
       </c>
       <c r="D19">
-        <v>0.3560905864894437</v>
+        <v>0.356090586490069</v>
       </c>
       <c r="E19">
-        <v>0.1415902315946127</v>
+        <v>0.1415902315947761</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,10 +1076,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>13.89011343988054</v>
+        <v>13.89011343988082</v>
       </c>
       <c r="I19">
-        <v>0.01857584170234361</v>
+        <v>0.0185758417023294</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.716360577705487</v>
+        <v>1.716360577705586</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.181840338759741</v>
+        <v>4.181840338759059</v>
       </c>
       <c r="C20">
-        <v>3.73195284903602</v>
+        <v>3.731952849035679</v>
       </c>
       <c r="D20">
-        <v>0.3732944416434947</v>
+        <v>0.3732944416440063</v>
       </c>
       <c r="E20">
-        <v>0.1478809875093354</v>
+        <v>0.1478809875093532</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>14.51982894384579</v>
+        <v>14.51982894384616</v>
       </c>
       <c r="I20">
-        <v>0.01929552389704092</v>
+        <v>0.01929552389699829</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.804584878703139</v>
+        <v>1.80458487870321</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,13 +1137,13 @@
         <v>4.976752101771297</v>
       </c>
       <c r="C21">
-        <v>4.369624616021611</v>
+        <v>4.36962461602252</v>
       </c>
       <c r="D21">
-        <v>0.4346402222272445</v>
+        <v>0.4346402222273582</v>
       </c>
       <c r="E21">
-        <v>0.1702183033577427</v>
+        <v>0.1702183033578279</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,10 +1152,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>16.75116335405613</v>
+        <v>16.75116335405585</v>
       </c>
       <c r="I21">
-        <v>0.02184466265674168</v>
+        <v>0.02184466265669727</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>2.121244911815182</v>
+        <v>2.121244911815253</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.553494048383186</v>
+        <v>5.553494048383243</v>
       </c>
       <c r="C22">
-        <v>4.823153784884596</v>
+        <v>4.823153784885221</v>
       </c>
       <c r="D22">
-        <v>0.478173776234172</v>
+        <v>0.4781737762346836</v>
       </c>
       <c r="E22">
-        <v>0.1859773049489419</v>
+        <v>0.1859773049488354</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>18.32190830751955</v>
+        <v>18.32190830752018</v>
       </c>
       <c r="I22">
-        <v>0.02363735677078438</v>
+        <v>0.02363735677079148</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>2.347957240701078</v>
+        <v>2.347957240701135</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.239371060909377</v>
+        <v>5.239371060909548</v>
       </c>
       <c r="C23">
-        <v>4.577054401967644</v>
+        <v>4.577054401968269</v>
       </c>
       <c r="D23">
-        <v>0.4545623908719563</v>
+        <v>0.4545623908720415</v>
       </c>
       <c r="E23">
-        <v>0.177439817446178</v>
+        <v>0.1774398174461425</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,10 +1228,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>17.47125449730021</v>
+        <v>17.47125449730089</v>
       </c>
       <c r="I23">
-        <v>0.0226667374880396</v>
+        <v>0.02266673748811598</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>2.22478609147548</v>
+        <v>2.224786091475494</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.169610668160033</v>
+        <v>4.169610668160146</v>
       </c>
       <c r="C24">
-        <v>3.722022126907632</v>
+        <v>3.722022126907348</v>
       </c>
       <c r="D24">
-        <v>0.3723380364343427</v>
+        <v>0.372338036434769</v>
       </c>
       <c r="E24">
-        <v>0.147531568001682</v>
+        <v>0.1475315680017957</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14.48486853143612</v>
+        <v>14.48486853143606</v>
       </c>
       <c r="I24">
-        <v>0.01925557023719016</v>
+        <v>0.01925557023720614</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.7996736522106</v>
+        <v>1.799673652210643</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.182385949641571</v>
+        <v>3.182385949641628</v>
       </c>
       <c r="C25">
-        <v>2.907314624773505</v>
+        <v>2.907314624772766</v>
       </c>
       <c r="D25">
-        <v>0.2938021529792962</v>
+        <v>0.2938021529799357</v>
       </c>
       <c r="E25">
-        <v>0.1187202823613056</v>
+        <v>0.1187202823612843</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,10 +1304,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>11.59428576319584</v>
+        <v>11.59428576319615</v>
       </c>
       <c r="I25">
-        <v>0.01595237223920165</v>
+        <v>0.01595237223924872</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_4/res_line/pl_mw.xlsx
@@ -412,7 +412,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.541151791093114</v>
+        <v>2.541151791093341</v>
       </c>
       <c r="C2">
         <v>2.362903306049418</v>
@@ -430,10 +430,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9.6367979056499</v>
+        <v>9.636797905649871</v>
       </c>
       <c r="I2">
-        <v>0.01371817896728</v>
+        <v>0.01371817896727823</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -453,13 +453,13 @@
         <v>2.141364273798445</v>
       </c>
       <c r="C3">
-        <v>2.016430396525209</v>
+        <v>2.016430396525266</v>
       </c>
       <c r="D3">
-        <v>0.2078861585131051</v>
+        <v>0.2078861585131477</v>
       </c>
       <c r="E3">
-        <v>0.08694253122535045</v>
+        <v>0.08694253122535756</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,10 +468,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8.379045296390075</v>
+        <v>8.379045296390274</v>
       </c>
       <c r="I3">
-        <v>0.01228558212160191</v>
+        <v>0.01228558212155839</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.9667100809833826</v>
+        <v>0.9667100809834466</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.908567159154615</v>
+        <v>1.908567159154586</v>
       </c>
       <c r="C4">
-        <v>1.811844629247332</v>
+        <v>1.811844629247275</v>
       </c>
       <c r="D4">
-        <v>0.1881810741349597</v>
+        <v>0.1881810741355849</v>
       </c>
       <c r="E4">
-        <v>0.07961708995174988</v>
+        <v>0.07961708995175343</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,10 +506,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.631481643445682</v>
+        <v>7.631481643445767</v>
       </c>
       <c r="I4">
-        <v>0.0114358344926071</v>
+        <v>0.01143583449256358</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.8684530784506705</v>
+        <v>0.868453078450699</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,13 +529,13 @@
         <v>1.816342450515236</v>
       </c>
       <c r="C5">
-        <v>1.730164529125375</v>
+        <v>1.730164529125261</v>
       </c>
       <c r="D5">
-        <v>0.180319574230694</v>
+        <v>0.1803195742305235</v>
       </c>
       <c r="E5">
-        <v>0.07669070419370172</v>
+        <v>0.0766907041938083</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,10 +544,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.331914280536836</v>
+        <v>7.331914280536722</v>
       </c>
       <c r="I5">
-        <v>0.0110957891741128</v>
+        <v>0.01109578917411369</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.8293491664095214</v>
+        <v>0.8293491664095427</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.801173945092842</v>
+        <v>1.801173945092614</v>
       </c>
       <c r="C6">
-        <v>1.716694284690504</v>
+        <v>1.716694284690448</v>
       </c>
       <c r="D6">
-        <v>0.179023469435748</v>
+        <v>0.1790234694358332</v>
       </c>
       <c r="E6">
-        <v>0.07620802794071935</v>
+        <v>0.07620802794085435</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,10 +582,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.282447584977575</v>
+        <v>7.28244758497766</v>
       </c>
       <c r="I6">
-        <v>0.01103966768961939</v>
+        <v>0.01103966768963627</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.8229075639106966</v>
+        <v>0.8229075639106895</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.907313341516129</v>
+        <v>1.907313341515817</v>
       </c>
       <c r="C7">
-        <v>1.810736651631373</v>
+        <v>1.810736651630521</v>
       </c>
       <c r="D7">
-        <v>0.1880744096609703</v>
+        <v>0.1880744096610556</v>
       </c>
       <c r="E7">
-        <v>0.07957739955960363</v>
+        <v>0.07957739955958942</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.627422420530593</v>
+        <v>7.627422420530479</v>
       </c>
       <c r="I7">
-        <v>0.01143122483036763</v>
+        <v>0.01143122483035874</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.867922146752548</v>
+        <v>0.8679221467525835</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.400315523756262</v>
+        <v>2.400315523756774</v>
       </c>
       <c r="C8">
         <v>2.241511964624181</v>
       </c>
       <c r="D8">
-        <v>0.2295822909959355</v>
+        <v>0.2295822909958787</v>
       </c>
       <c r="E8">
-        <v>0.09499222009534947</v>
+        <v>0.09499222009545605</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,10 +658,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9.197251282921712</v>
+        <v>9.197251282921826</v>
       </c>
       <c r="I8">
-        <v>0.01321718404536654</v>
+        <v>0.01321718404530703</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.075287868103516</v>
+        <v>1.075287868103544</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.498583759373332</v>
+        <v>3.498583759373673</v>
       </c>
       <c r="C9">
-        <v>3.171168373340436</v>
+        <v>3.171168373339754</v>
       </c>
       <c r="D9">
-        <v>0.3192495435779961</v>
+        <v>0.3192495435775697</v>
       </c>
       <c r="E9">
-        <v>0.1280810957442142</v>
+        <v>0.1280810957441538</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,10 +696,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12.53536347853884</v>
+        <v>12.53536347853901</v>
       </c>
       <c r="I9">
-        <v>0.01702756526437454</v>
+        <v>0.01702756526436566</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.528277266351438</v>
+        <v>1.528277266351537</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.443245428793375</v>
+        <v>4.443245428792864</v>
       </c>
       <c r="C10">
-        <v>3.943328359496775</v>
+        <v>3.943328359497798</v>
       </c>
       <c r="D10">
-        <v>0.3936446097275592</v>
+        <v>0.3936446097276018</v>
       </c>
       <c r="E10">
-        <v>0.1553074217582306</v>
+        <v>0.1553074217582981</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,10 +734,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15.26242418167658</v>
+        <v>15.26242418167652</v>
       </c>
       <c r="I10">
-        <v>0.02014410909888653</v>
+        <v>0.02014410909881548</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.909270269367511</v>
+        <v>1.909270269367468</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.922237555883498</v>
+        <v>4.922237555883328</v>
       </c>
       <c r="C11">
-        <v>4.326370126189317</v>
+        <v>4.326370126188465</v>
       </c>
       <c r="D11">
-        <v>0.4304836868437008</v>
+        <v>0.4304836868444113</v>
       </c>
       <c r="E11">
-        <v>0.1687095695346699</v>
+        <v>0.1687095695346557</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,10 +772,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>16.60064975823275</v>
+        <v>16.60064975823281</v>
       </c>
       <c r="I11">
-        <v>0.02167278858002675</v>
+        <v>0.02167278858000721</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2.099686221919754</v>
+        <v>2.099686221919768</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.113111433661629</v>
+        <v>5.113111433661345</v>
       </c>
       <c r="C12">
-        <v>4.477522135974596</v>
+        <v>4.477522135975846</v>
       </c>
       <c r="D12">
-        <v>0.445005290919994</v>
+        <v>0.4450052909202782</v>
       </c>
       <c r="E12">
-        <v>0.1739775333974194</v>
+        <v>0.1739775333974265</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,10 +810,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>17.12608174651587</v>
+        <v>17.12608174651615</v>
       </c>
       <c r="I12">
-        <v>0.02227272446096329</v>
+        <v>0.02227272446090822</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.071532596423822</v>
+        <v>5.071532596423651</v>
       </c>
       <c r="C13">
-        <v>4.444666574211794</v>
+        <v>4.444666574211055</v>
       </c>
       <c r="D13">
-        <v>0.4418495660570159</v>
+        <v>0.4418495660573853</v>
       </c>
       <c r="E13">
-        <v>0.1728334723448626</v>
+        <v>0.172833472344827</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>17.01199736397137</v>
       </c>
       <c r="I13">
-        <v>0.02214247901624233</v>
+        <v>0.02214247901615174</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>2.158673540727293</v>
+        <v>2.158673540727236</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,13 +871,13 @@
         <v>4.937733509719237</v>
       </c>
       <c r="C14">
-        <v>4.338672302976988</v>
+        <v>4.3386723029775</v>
       </c>
       <c r="D14">
-        <v>0.4316659393724649</v>
+        <v>0.4316659393718112</v>
       </c>
       <c r="E14">
-        <v>0.1691387734479122</v>
+        <v>0.1691387734478269</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,10 +886,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16.64347039335468</v>
+        <v>16.64347039335433</v>
       </c>
       <c r="I14">
-        <v>0.02172168763777371</v>
+        <v>0.02172168763770621</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>2.10581666782987</v>
+        <v>2.105816667829814</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.857100841344732</v>
+        <v>4.857100841344618</v>
       </c>
       <c r="C15">
-        <v>4.274597846846461</v>
+        <v>4.274597846846177</v>
       </c>
       <c r="D15">
-        <v>0.425507660079262</v>
+        <v>0.4255076600792052</v>
       </c>
       <c r="E15">
-        <v>0.1669024563728883</v>
+        <v>0.1669024563729131</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>16.42033541149533</v>
+        <v>16.42033541149539</v>
       </c>
       <c r="I15">
-        <v>0.02146686634629802</v>
+        <v>0.0214668663462696</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>2.073896957120496</v>
+        <v>2.073896957120468</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.413119301042116</v>
+        <v>4.413119301042457</v>
       </c>
       <c r="C16">
-        <v>3.919053794858598</v>
+        <v>3.919053794858655</v>
       </c>
       <c r="D16">
-        <v>0.3913082799280971</v>
+        <v>0.3913082799285093</v>
       </c>
       <c r="E16">
-        <v>0.1544556421213095</v>
+        <v>0.1544556421213592</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>15.17729287901903</v>
+        <v>15.17729287901898</v>
       </c>
       <c r="I16">
-        <v>0.02004683543941255</v>
+        <v>0.02004683543936636</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.154819373806333</v>
+        <v>4.154819373806106</v>
       </c>
       <c r="C17">
-        <v>3.710006279380309</v>
+        <v>3.710006279379343</v>
       </c>
       <c r="D17">
-        <v>0.37118078064222</v>
+        <v>0.3711807806422911</v>
       </c>
       <c r="E17">
-        <v>0.1471087210967106</v>
+        <v>0.1471087210968207</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,10 +1000,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>14.44255889465694</v>
+        <v>14.4425588946568</v>
       </c>
       <c r="I17">
-        <v>0.01920721738761344</v>
+        <v>0.01920721738764186</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.793732083358975</v>
+        <v>1.793732083359018</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,13 +1023,13 @@
         <v>4.010704801309998</v>
       </c>
       <c r="C18">
-        <v>3.592642445456022</v>
+        <v>3.59264244545443</v>
       </c>
       <c r="D18">
-        <v>0.3598753271242146</v>
+        <v>0.3598753271251951</v>
       </c>
       <c r="E18">
-        <v>0.1429751337325307</v>
+        <v>0.1429751337325271</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>14.0288018702025</v>
+        <v>14.02880187020278</v>
       </c>
       <c r="I18">
-        <v>0.0187343480797022</v>
+        <v>0.0187343480797626</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.73574777208276</v>
+        <v>1.735747772082803</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.962615124695276</v>
+        <v>3.962615124695617</v>
       </c>
       <c r="C19">
-        <v>3.553360641089455</v>
+        <v>3.553360641090705</v>
       </c>
       <c r="D19">
-        <v>0.356090586490069</v>
+        <v>0.3560905864894437</v>
       </c>
       <c r="E19">
-        <v>0.1415902315947761</v>
+        <v>0.1415902315946127</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,10 +1076,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>13.89011343988082</v>
+        <v>13.89011343988054</v>
       </c>
       <c r="I19">
-        <v>0.0185758417023294</v>
+        <v>0.01857584170234361</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.716360577705586</v>
+        <v>1.716360577705487</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.181840338759059</v>
+        <v>4.181840338759741</v>
       </c>
       <c r="C20">
-        <v>3.731952849035679</v>
+        <v>3.73195284903602</v>
       </c>
       <c r="D20">
-        <v>0.3732944416440063</v>
+        <v>0.3732944416434947</v>
       </c>
       <c r="E20">
-        <v>0.1478809875093532</v>
+        <v>0.1478809875093354</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>14.51982894384616</v>
+        <v>14.51982894384579</v>
       </c>
       <c r="I20">
-        <v>0.01929552389699829</v>
+        <v>0.01929552389704092</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.80458487870321</v>
+        <v>1.804584878703139</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,13 +1137,13 @@
         <v>4.976752101771297</v>
       </c>
       <c r="C21">
-        <v>4.36962461602252</v>
+        <v>4.369624616021611</v>
       </c>
       <c r="D21">
-        <v>0.4346402222273582</v>
+        <v>0.4346402222272445</v>
       </c>
       <c r="E21">
-        <v>0.1702183033578279</v>
+        <v>0.1702183033577427</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,10 +1152,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>16.75116335405585</v>
+        <v>16.75116335405613</v>
       </c>
       <c r="I21">
-        <v>0.02184466265669727</v>
+        <v>0.02184466265674168</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>2.121244911815253</v>
+        <v>2.121244911815182</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.553494048383243</v>
+        <v>5.553494048383186</v>
       </c>
       <c r="C22">
-        <v>4.823153784885221</v>
+        <v>4.823153784884596</v>
       </c>
       <c r="D22">
-        <v>0.4781737762346836</v>
+        <v>0.478173776234172</v>
       </c>
       <c r="E22">
-        <v>0.1859773049488354</v>
+        <v>0.1859773049489419</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>18.32190830752018</v>
+        <v>18.32190830751955</v>
       </c>
       <c r="I22">
-        <v>0.02363735677079148</v>
+        <v>0.02363735677078438</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>2.347957240701135</v>
+        <v>2.347957240701078</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.239371060909548</v>
+        <v>5.239371060909377</v>
       </c>
       <c r="C23">
-        <v>4.577054401968269</v>
+        <v>4.577054401967644</v>
       </c>
       <c r="D23">
-        <v>0.4545623908720415</v>
+        <v>0.4545623908719563</v>
       </c>
       <c r="E23">
-        <v>0.1774398174461425</v>
+        <v>0.177439817446178</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,10 +1228,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>17.47125449730089</v>
+        <v>17.47125449730021</v>
       </c>
       <c r="I23">
-        <v>0.02266673748811598</v>
+        <v>0.0226667374880396</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>2.224786091475494</v>
+        <v>2.22478609147548</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.169610668160146</v>
+        <v>4.169610668160033</v>
       </c>
       <c r="C24">
-        <v>3.722022126907348</v>
+        <v>3.722022126907632</v>
       </c>
       <c r="D24">
-        <v>0.372338036434769</v>
+        <v>0.3723380364343427</v>
       </c>
       <c r="E24">
-        <v>0.1475315680017957</v>
+        <v>0.147531568001682</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14.48486853143606</v>
+        <v>14.48486853143612</v>
       </c>
       <c r="I24">
-        <v>0.01925557023720614</v>
+        <v>0.01925557023719016</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.799673652210643</v>
+        <v>1.7996736522106</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.182385949641628</v>
+        <v>3.182385949641571</v>
       </c>
       <c r="C25">
-        <v>2.907314624772766</v>
+        <v>2.907314624773505</v>
       </c>
       <c r="D25">
-        <v>0.2938021529799357</v>
+        <v>0.2938021529792962</v>
       </c>
       <c r="E25">
-        <v>0.1187202823612843</v>
+        <v>0.1187202823613056</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,10 +1304,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>11.59428576319615</v>
+        <v>11.59428576319584</v>
       </c>
       <c r="I25">
-        <v>0.01595237223924872</v>
+        <v>0.01595237223920165</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_4/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.541151791093341</v>
+        <v>2.504661342392296</v>
       </c>
       <c r="C2">
-        <v>2.362903306049418</v>
+        <v>2.344691004477113</v>
       </c>
       <c r="D2">
-        <v>0.2412883239977219</v>
+        <v>0.2397738488033951</v>
       </c>
       <c r="E2">
-        <v>0.09932843123691626</v>
+        <v>0.09811871835545816</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007711695350588209</v>
       </c>
       <c r="H2">
-        <v>9.636797905649871</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.01371817896727823</v>
+        <v>9.641301694398209</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.01325847700893412</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.134038808836749</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1.125476472513462</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.141364273798445</v>
+        <v>2.112589856722479</v>
       </c>
       <c r="C3">
-        <v>2.016430396525266</v>
+        <v>2.003309323670692</v>
       </c>
       <c r="D3">
-        <v>0.2078861585131477</v>
+        <v>0.2066036922714289</v>
       </c>
       <c r="E3">
-        <v>0.08694253122535756</v>
+        <v>0.08575971527255533</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.000787453091090511</v>
       </c>
       <c r="H3">
-        <v>8.379045296390274</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01228558212155839</v>
+        <v>8.392462689387884</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.01182764385762169</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.9667100809834466</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.9603911040132544</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.908567159154586</v>
+        <v>1.884387283633032</v>
       </c>
       <c r="C4">
-        <v>1.811844629247275</v>
+        <v>1.801744166934839</v>
       </c>
       <c r="D4">
-        <v>0.1881810741355849</v>
+        <v>0.1870290517188096</v>
       </c>
       <c r="E4">
-        <v>0.07961708995175343</v>
+        <v>0.07844616199790622</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007975153405001198</v>
       </c>
       <c r="H4">
-        <v>7.631481643445767</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.01143583449256358</v>
+        <v>7.649978656646397</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.01097842573755781</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.868453078450699</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.8634558775197263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.816342450515236</v>
+        <v>1.794011358271916</v>
       </c>
       <c r="C5">
-        <v>1.730164529125261</v>
+        <v>1.72127664682813</v>
       </c>
       <c r="D5">
-        <v>0.1803195742305235</v>
+        <v>0.1792183087005412</v>
       </c>
       <c r="E5">
-        <v>0.0766907041938083</v>
+        <v>0.07552363543829443</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0008016417065514441</v>
       </c>
       <c r="H5">
-        <v>7.331914280536722</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.01109578917411369</v>
+        <v>7.352403767081114</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.01063847630719472</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.8293491664095427</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.8248806445025849</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.801173945092614</v>
+        <v>1.779148734372029</v>
       </c>
       <c r="C6">
-        <v>1.716694284690448</v>
+        <v>1.708006848639741</v>
       </c>
       <c r="D6">
-        <v>0.1790234694358332</v>
+        <v>0.1779305026413027</v>
       </c>
       <c r="E6">
-        <v>0.07620802794085435</v>
+        <v>0.07504154494235493</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.000802328709918208</v>
       </c>
       <c r="H6">
-        <v>7.28244758497766</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.01103966768963627</v>
+        <v>7.303263777524137</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.01058236398452017</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.8229075639106895</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.8185263290777129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.907313341515817</v>
+        <v>1.883158480106431</v>
       </c>
       <c r="C7">
-        <v>1.810736651630521</v>
+        <v>1.800652607343409</v>
       </c>
       <c r="D7">
-        <v>0.1880744096610556</v>
+        <v>0.186923080767329</v>
       </c>
       <c r="E7">
-        <v>0.07957739955958942</v>
+        <v>0.07840652743572818</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007975708733400117</v>
       </c>
       <c r="H7">
-        <v>7.627422420530479</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.01143122483035874</v>
+        <v>7.645946593862334</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.01097381783172757</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.8679221467525835</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.862932111383742</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.400315523756774</v>
+        <v>2.366523721820215</v>
       </c>
       <c r="C8">
-        <v>2.241511964624181</v>
+        <v>2.225082525109144</v>
       </c>
       <c r="D8">
-        <v>0.2295822909958787</v>
+        <v>0.2281507269508722</v>
       </c>
       <c r="E8">
-        <v>0.09499222009545605</v>
+        <v>0.09379286315189361</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007767772301495154</v>
       </c>
       <c r="H8">
-        <v>9.197251282921826</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.01321718404530703</v>
+        <v>9.20492463351718</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.01275821821688616</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.075287868103544</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1.067513333928524</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.498583759373673</v>
+        <v>3.443990301890835</v>
       </c>
       <c r="C9">
-        <v>3.171168373339754</v>
+        <v>3.14095907276004</v>
       </c>
       <c r="D9">
-        <v>0.3192495435775697</v>
+        <v>0.3171346636149366</v>
       </c>
       <c r="E9">
-        <v>0.1280810957441538</v>
+        <v>0.1267780098357818</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.000735960515986035</v>
       </c>
       <c r="H9">
-        <v>12.53536347853901</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.01702756526436566</v>
+        <v>12.51732041213759</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.01655994415373918</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.528277266351537</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1.514351598563863</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.443245428792864</v>
+        <v>4.370607820444832</v>
       </c>
       <c r="C10">
-        <v>3.943328359497798</v>
+        <v>3.901145712788605</v>
       </c>
       <c r="D10">
-        <v>0.3936446097276018</v>
+        <v>0.3908653084881593</v>
       </c>
       <c r="E10">
-        <v>0.1553074217582981</v>
+        <v>0.1538752457215153</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007049421112634201</v>
       </c>
       <c r="H10">
-        <v>15.26242418167652</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.02014410909881548</v>
+        <v>15.22004294146882</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.01966414892955726</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.909270269367468</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1.88988447507532</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.922237555883328</v>
+        <v>4.840166091281219</v>
       </c>
       <c r="C11">
-        <v>4.326370126188465</v>
+        <v>4.277938132142253</v>
       </c>
       <c r="D11">
-        <v>0.4304836868444113</v>
+        <v>0.4273349901588688</v>
       </c>
       <c r="E11">
-        <v>0.1687095695346557</v>
+        <v>0.1671977270830212</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.000690276773773757</v>
       </c>
       <c r="H11">
-        <v>16.60064975823281</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.02167278858000721</v>
+        <v>16.5449468607934</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.02118489046548611</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2.099686221919768</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>2.077408801214318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.113111433661345</v>
+        <v>5.027202145883052</v>
       </c>
       <c r="C12">
-        <v>4.477522135975846</v>
+        <v>4.426551440789694</v>
       </c>
       <c r="D12">
-        <v>0.4450052909202782</v>
+        <v>0.4417024819171331</v>
       </c>
       <c r="E12">
-        <v>0.1739775333974265</v>
+        <v>0.1724311418436884</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0006846031001352379</v>
       </c>
       <c r="H12">
-        <v>17.12608174651615</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.02227272446090822</v>
+        <v>17.06485879853221</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.02178133731638709</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>2.175071450998658</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>2.151611368130176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.071532596423651</v>
+        <v>4.986463608531494</v>
       </c>
       <c r="C13">
-        <v>4.444666574211055</v>
+        <v>4.394251531056284</v>
       </c>
       <c r="D13">
-        <v>0.4418495660573853</v>
+        <v>0.4385806811627333</v>
       </c>
       <c r="E13">
-        <v>0.172833472344827</v>
+        <v>0.1712947465925723</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0006858311852231402</v>
       </c>
       <c r="H13">
-        <v>17.01199736397137</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.02214247901615174</v>
+        <v>16.95198771928011</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.02165186806390729</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>2.158673540727236</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>2.135472699432171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.937733509719237</v>
+        <v>4.855352307835062</v>
       </c>
       <c r="C14">
-        <v>4.3386723029775</v>
+        <v>4.290035333501351</v>
       </c>
       <c r="D14">
-        <v>0.4316659393718112</v>
+        <v>0.4285048841053651</v>
       </c>
       <c r="E14">
-        <v>0.1691387734478269</v>
+        <v>0.167624186987247</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0006898126930286749</v>
       </c>
       <c r="H14">
-        <v>16.64347039335433</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.02172168763770621</v>
+        <v>16.58732404791442</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.02123351330866008</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>2.105816667829814</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>2.083443928150459</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.857100841344618</v>
+        <v>4.776327969340116</v>
       </c>
       <c r="C15">
-        <v>4.274597846846177</v>
+        <v>4.227025381210012</v>
       </c>
       <c r="D15">
-        <v>0.4255076600792052</v>
+        <v>0.422410622972933</v>
       </c>
       <c r="E15">
-        <v>0.1669024563729131</v>
+        <v>0.1654020320645522</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.000692234368322311</v>
       </c>
       <c r="H15">
-        <v>16.42033541149539</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.0214668663462696</v>
+        <v>16.36648766659863</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.02098011581108317</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>2.073896957120468</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>2.052018913780898</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.413119301042457</v>
+        <v>4.341066919736534</v>
       </c>
       <c r="C16">
-        <v>3.919053794858655</v>
+        <v>3.877259174082496</v>
       </c>
       <c r="D16">
-        <v>0.3913082799285093</v>
+        <v>0.3885514285147451</v>
       </c>
       <c r="E16">
-        <v>0.1544556421213592</v>
+        <v>0.1530281495230348</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007058862238034894</v>
       </c>
       <c r="H16">
-        <v>15.17729287901898</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.02004683543936636</v>
+        <v>15.13572565391695</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.01956733622556328</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.897233671436226</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1.878026486539795</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.154819373806106</v>
+        <v>4.087752203837113</v>
       </c>
       <c r="C17">
-        <v>3.710006279379343</v>
+        <v>3.671518276243148</v>
       </c>
       <c r="D17">
-        <v>0.3711807806422911</v>
+        <v>0.3686128333700509</v>
       </c>
       <c r="E17">
-        <v>0.1471087210968207</v>
+        <v>0.1457198329677212</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007140945198647278</v>
       </c>
       <c r="H17">
-        <v>14.4425588946568</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.01920721738764186</v>
+        <v>14.4078627329099</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.01873148726333085</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.793732083359018</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1.776042463234759</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.010704801309998</v>
+        <v>3.946396815111598</v>
       </c>
       <c r="C18">
-        <v>3.59264244545443</v>
+        <v>3.55598533092126</v>
       </c>
       <c r="D18">
-        <v>0.3598753271251951</v>
+        <v>0.3574100808195766</v>
       </c>
       <c r="E18">
-        <v>0.1429751337325271</v>
+        <v>0.1416065892931577</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007187665539050894</v>
       </c>
       <c r="H18">
-        <v>14.02880187020278</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.0187343480797626</v>
+        <v>13.99785816900723</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.0182605790354522</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.735747772082803</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1.718894965987388</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.962615124695617</v>
+        <v>3.899224819986841</v>
       </c>
       <c r="C19">
-        <v>3.553360641090705</v>
+        <v>3.517312550303302</v>
       </c>
       <c r="D19">
-        <v>0.3560905864894437</v>
+        <v>0.3536591954803328</v>
       </c>
       <c r="E19">
-        <v>0.1415902315946127</v>
+        <v>0.140228286828556</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.000720340992948764</v>
       </c>
       <c r="H19">
-        <v>13.89011343988054</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.01857584170234361</v>
+        <v>13.86040947046166</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.0181027045155453</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.716360577705487</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1.699785577412072</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.181840338759741</v>
+        <v>4.114254189283827</v>
       </c>
       <c r="C20">
-        <v>3.73195284903602</v>
+        <v>3.693120522894617</v>
       </c>
       <c r="D20">
-        <v>0.3732944416434947</v>
+        <v>0.3707070271966728</v>
       </c>
       <c r="E20">
-        <v>0.1478809875093354</v>
+        <v>0.1464881901892916</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007132260687250103</v>
       </c>
       <c r="H20">
-        <v>14.51982894384579</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.01929552389704092</v>
+        <v>14.48442287006174</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.01881941479199867</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.804584878703139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1.786737607642351</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.976752101771297</v>
+        <v>4.893589586622284</v>
       </c>
       <c r="C21">
-        <v>4.369624616021611</v>
+        <v>4.320470660658145</v>
       </c>
       <c r="D21">
-        <v>0.4346402222272445</v>
+        <v>0.4314479299012817</v>
       </c>
       <c r="E21">
-        <v>0.1702183033577427</v>
+        <v>0.1686967602074461</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.000688646888671318</v>
       </c>
       <c r="H21">
-        <v>16.75116335405613</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.02184466265674168</v>
+        <v>16.69389678394248</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.02135578734185017</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>2.121244911815182</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>2.098631627433562</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.553494048383186</v>
+        <v>5.458521035782496</v>
       </c>
       <c r="C22">
-        <v>4.823153784884596</v>
+        <v>4.766197561357785</v>
       </c>
       <c r="D22">
-        <v>0.478173776234172</v>
+        <v>0.4744989162036859</v>
       </c>
       <c r="E22">
-        <v>0.1859773049489419</v>
+        <v>0.1843447835444039</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0006718507228998531</v>
       </c>
       <c r="H22">
-        <v>18.32190830751955</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.02363735677078438</v>
+        <v>18.24744203086198</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.02313718082954885</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>2.347957240701078</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>2.321690966799892</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.239371060909377</v>
+        <v>5.150894600970105</v>
       </c>
       <c r="C23">
-        <v>4.577054401967644</v>
+        <v>4.524386890750293</v>
       </c>
       <c r="D23">
-        <v>0.4545623908719563</v>
+        <v>0.4511553285694561</v>
       </c>
       <c r="E23">
-        <v>0.177439817446178</v>
+        <v>0.1758696628732963</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.000680899927039184</v>
       </c>
       <c r="H23">
-        <v>17.47125449730021</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.0226667374880396</v>
+        <v>17.40630909911363</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.02217293744673654</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>2.22478609147548</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>2.200533012294059</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.169610668160033</v>
+        <v>4.102259476248321</v>
       </c>
       <c r="C24">
-        <v>3.722022126907632</v>
+        <v>3.683345683820846</v>
       </c>
       <c r="D24">
-        <v>0.3723380364343427</v>
+        <v>0.3697594411755887</v>
       </c>
       <c r="E24">
-        <v>0.147531568001682</v>
+        <v>0.1461405436994738</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007136188391879301</v>
       </c>
       <c r="H24">
-        <v>14.48486853143612</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.01925557023719016</v>
+        <v>14.44978401481345</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.0187796331004435</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.7996736522106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1.781897764247262</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.182385949641571</v>
+        <v>3.133753904362663</v>
       </c>
       <c r="C25">
-        <v>2.907314624773505</v>
+        <v>2.881060748821596</v>
       </c>
       <c r="D25">
-        <v>0.2938021529792962</v>
+        <v>0.2918929959748624</v>
       </c>
       <c r="E25">
-        <v>0.1187202823613056</v>
+        <v>0.1174522899439303</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007470951486962112</v>
       </c>
       <c r="H25">
-        <v>11.59428576319584</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.01595237223920165</v>
+        <v>11.58389785839969</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.01548789841749354</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.399030041593804</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1.386884628360477</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_4/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.504661342392296</v>
+        <v>2.396901051670284</v>
       </c>
       <c r="C2">
-        <v>2.344691004477113</v>
+        <v>0.2570377249787725</v>
       </c>
       <c r="D2">
-        <v>0.2397738488033951</v>
+        <v>0.1954534288881291</v>
       </c>
       <c r="E2">
-        <v>0.09811871835545816</v>
+        <v>0.04529294093562442</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007711695350588209</v>
+        <v>0.0008128999529338077</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9.641301694398209</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01325847700893412</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.5269422194318025</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2922806832388147</v>
       </c>
       <c r="M2">
-        <v>1.125476472513462</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>9.033664802233062</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.112589856722479</v>
+        <v>2.073837003157905</v>
       </c>
       <c r="C3">
-        <v>2.003309323670692</v>
+        <v>0.2177110253114307</v>
       </c>
       <c r="D3">
-        <v>0.2066036922714289</v>
+        <v>0.1677567710389951</v>
       </c>
       <c r="E3">
-        <v>0.08575971527255533</v>
+        <v>0.04193988020120187</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.000787453091090511</v>
+        <v>0.0008256568426961294</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>8.392462689387884</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01182764385762169</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4510529029680939</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.256276398866234</v>
       </c>
       <c r="M3">
-        <v>0.9603911040132544</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>7.965076387828134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.884387283633032</v>
+        <v>1.883555537818921</v>
       </c>
       <c r="C4">
-        <v>1.801744166934839</v>
+        <v>0.1945337308831512</v>
       </c>
       <c r="D4">
-        <v>0.1870290517188096</v>
+        <v>0.1512128301309872</v>
       </c>
       <c r="E4">
-        <v>0.07844616199790622</v>
+        <v>0.03994194734401368</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0007975153405001198</v>
+        <v>0.0008336110662344669</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>7.649978656646397</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01097842573755781</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4063577002494654</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2349323667951211</v>
       </c>
       <c r="M4">
-        <v>0.8634558775197263</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>7.325545820712136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.794011358271916</v>
+        <v>1.807774859585095</v>
       </c>
       <c r="C5">
-        <v>1.72127664682813</v>
+        <v>0.185290020467221</v>
       </c>
       <c r="D5">
-        <v>0.1792183087005412</v>
+        <v>0.1445691397547506</v>
       </c>
       <c r="E5">
-        <v>0.07552363543829443</v>
+        <v>0.03914087908889918</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008016417065514441</v>
+        <v>0.0008368878647268648</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>7.352403767081114</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.01063847630719472</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3885548080612082</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2264011372177492</v>
       </c>
       <c r="M5">
-        <v>0.8248806445025849</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>7.068418348524119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.779148734372029</v>
+        <v>1.795290571922578</v>
       </c>
       <c r="C6">
-        <v>1.708006848639741</v>
+        <v>0.183766125483217</v>
       </c>
       <c r="D6">
-        <v>0.1779305026413027</v>
+        <v>0.1434713982448557</v>
       </c>
       <c r="E6">
-        <v>0.07504154494235493</v>
+        <v>0.03900859459893624</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.000802328709918208</v>
+        <v>0.0008374342429884425</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>7.303263777524137</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01058236398452017</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3856216541644812</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2249939188786954</v>
       </c>
       <c r="M6">
-        <v>0.8185263290777129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>7.025914633321065</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.883158480106431</v>
+        <v>1.882526738763346</v>
       </c>
       <c r="C7">
-        <v>1.800652607343409</v>
+        <v>0.1944083043419624</v>
       </c>
       <c r="D7">
-        <v>0.186923080767329</v>
+        <v>0.1511228560740818</v>
       </c>
       <c r="E7">
-        <v>0.07840652743572818</v>
+        <v>0.03993109350545687</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0007975708733400117</v>
+        <v>0.0008336551092618079</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>7.645946593862334</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.01097381783172757</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4061160237715598</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2348166679993966</v>
       </c>
       <c r="M7">
-        <v>0.862932111383742</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>7.322064838357988</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.366523721820215</v>
+        <v>2.283656505958675</v>
       </c>
       <c r="C8">
-        <v>2.225082525109144</v>
+        <v>0.243249154877816</v>
       </c>
       <c r="D8">
-        <v>0.2281507269508722</v>
+        <v>0.1857961536555308</v>
       </c>
       <c r="E8">
-        <v>0.09379286315189361</v>
+        <v>0.04412276200953258</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007767772301495154</v>
+        <v>0.000817276434625226</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9.20492463351718</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.01275821821688616</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.5003376337652199</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2796919404371323</v>
       </c>
       <c r="M8">
-        <v>1.067513333928524</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>8.661333347089283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.443990301890835</v>
+        <v>3.148840647653913</v>
       </c>
       <c r="C9">
-        <v>3.14095907276004</v>
+        <v>0.3490068411547043</v>
       </c>
       <c r="D9">
-        <v>0.3171346636149366</v>
+        <v>0.2584106218156705</v>
       </c>
       <c r="E9">
-        <v>0.1267780098357818</v>
+        <v>0.05294185210406965</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.000735960515986035</v>
+        <v>0.0007858656316718028</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.51732041213759</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.01655994415373918</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.7037802011937728</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3750744688139633</v>
       </c>
       <c r="M9">
-        <v>1.514351598563863</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>11.45542860762038</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.370607820444832</v>
+        <v>3.856923727746391</v>
       </c>
       <c r="C10">
-        <v>3.901145712788605</v>
+        <v>0.4367304313893499</v>
       </c>
       <c r="D10">
-        <v>0.3908653084881593</v>
+        <v>0.3161868346439292</v>
       </c>
       <c r="E10">
-        <v>0.1538752457215153</v>
+        <v>0.05998279243879878</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007049421112634201</v>
+        <v>0.0007627893144450213</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.22004294146882</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.01966414892955726</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.870746787501119</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.4518921090144374</v>
       </c>
       <c r="M10">
-        <v>1.88988447507532</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>13.67147309252465</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.840166091281219</v>
+        <v>4.201931190512028</v>
       </c>
       <c r="C11">
-        <v>4.277938132142253</v>
+        <v>0.4799848747384772</v>
       </c>
       <c r="D11">
-        <v>0.4273349901588688</v>
+        <v>0.3438964516642926</v>
       </c>
       <c r="E11">
-        <v>0.1671977270830212</v>
+        <v>0.06336454686282167</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.000690276773773757</v>
+        <v>0.0007521676117893986</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16.5449468607934</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02118489046548611</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.9522936446830101</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.4889474059415733</v>
       </c>
       <c r="M11">
-        <v>2.077408801214318</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>14.73262042047872</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.027202145883052</v>
+        <v>4.336644471833552</v>
       </c>
       <c r="C12">
-        <v>4.426551440789694</v>
+        <v>0.4969746287914063</v>
       </c>
       <c r="D12">
-        <v>0.4417024819171331</v>
+        <v>0.3546444511412972</v>
       </c>
       <c r="E12">
-        <v>0.1724311418436884</v>
+        <v>0.06467693976318856</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0006846031001352379</v>
+        <v>0.0007481142901775783</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>17.06485879853221</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.02178133731638709</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.9841723000990612</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.5033520037645474</v>
       </c>
       <c r="M12">
-        <v>2.151611368130176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>15.14396476647352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.986463608531494</v>
+        <v>4.307436336754108</v>
       </c>
       <c r="C13">
-        <v>4.394251531056284</v>
+        <v>0.4932860324322519</v>
       </c>
       <c r="D13">
-        <v>0.4385806811627333</v>
+        <v>0.3523174174850681</v>
       </c>
       <c r="E13">
-        <v>0.1712947465925723</v>
+        <v>0.06439276578107567</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0006858311852231402</v>
+        <v>0.0007489888746366688</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.95198771928011</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.02165186806390729</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.9772586326160706</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.5002318709992579</v>
       </c>
       <c r="M13">
-        <v>2.135472699432171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>15.05491664788622</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.855352307835062</v>
+        <v>4.212927531005505</v>
       </c>
       <c r="C14">
-        <v>4.290035333501351</v>
+        <v>0.4813695466196464</v>
       </c>
       <c r="D14">
-        <v>0.4285048841053651</v>
+        <v>0.3447752590742681</v>
       </c>
       <c r="E14">
-        <v>0.167624186987247</v>
+        <v>0.06347184096700076</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0006898126930286749</v>
+        <v>0.0007518348532237284</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.58732404791442</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.02123351330866008</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.9548950225082251</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.4901245608312905</v>
       </c>
       <c r="M14">
-        <v>2.083443928150459</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>14.76625899904121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.776327969340116</v>
+        <v>4.155593875621662</v>
       </c>
       <c r="C15">
-        <v>4.227025381210012</v>
+        <v>0.4741542041734306</v>
       </c>
       <c r="D15">
-        <v>0.422410622972933</v>
+        <v>0.340190349304109</v>
       </c>
       <c r="E15">
-        <v>0.1654020320645522</v>
+        <v>0.06291209368759709</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.000692234368322311</v>
+        <v>0.0007535735992250103</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.36648766659863</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.02098011581108317</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.9413332939949868</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.4839843830263106</v>
       </c>
       <c r="M15">
-        <v>2.052018913780898</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>14.5907497623715</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.341066919736534</v>
+        <v>3.834899510424918</v>
       </c>
       <c r="C16">
-        <v>3.877259174082496</v>
+        <v>0.4339813225329578</v>
       </c>
       <c r="D16">
-        <v>0.3885514285147451</v>
+        <v>0.3144086607930348</v>
       </c>
       <c r="E16">
-        <v>0.1530281495230348</v>
+        <v>0.05976587361501373</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007058862238034894</v>
+        <v>0.0007634799038311442</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>15.13572565391695</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.01956733622556328</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.8655456337928484</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.4495184818778881</v>
       </c>
       <c r="M16">
-        <v>1.878026486539795</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>13.60334351345384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.087752203837113</v>
+        <v>3.644524496438066</v>
       </c>
       <c r="C17">
-        <v>3.671518276243148</v>
+        <v>0.4102762356780971</v>
       </c>
       <c r="D17">
-        <v>0.3686128333700509</v>
+        <v>0.2989899155902549</v>
       </c>
       <c r="E17">
-        <v>0.1457198329677212</v>
+        <v>0.05788547453665061</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007140945198647278</v>
+        <v>0.0007695167736037901</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.4078627329099</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.01873148726333085</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.8206092853088336</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.4289597803961414</v>
       </c>
       <c r="M17">
-        <v>1.776042463234759</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>13.01240126309912</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.946396815111598</v>
+        <v>3.537125529142372</v>
       </c>
       <c r="C18">
-        <v>3.55598533092126</v>
+        <v>0.3969475788035908</v>
       </c>
       <c r="D18">
-        <v>0.3574100808195766</v>
+        <v>0.2902522187193881</v>
       </c>
       <c r="E18">
-        <v>0.1416065892931577</v>
+        <v>0.05682031325219228</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007187665539050894</v>
+        <v>0.0007729782803853389</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.99785816900723</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.0182605790354522</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.7952755629191017</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.4173286918583869</v>
       </c>
       <c r="M18">
-        <v>1.718894965987388</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>12.67736675399755</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.899224819986841</v>
+        <v>3.501101970905324</v>
       </c>
       <c r="C19">
-        <v>3.517312550303302</v>
+        <v>0.392483836155975</v>
       </c>
       <c r="D19">
-        <v>0.3536591954803328</v>
+        <v>0.2873149030585722</v>
       </c>
       <c r="E19">
-        <v>0.140228286828556</v>
+        <v>0.05646232011734753</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.000720340992948764</v>
+        <v>0.00077414879866056</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.86040947046166</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.0181027045155453</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.7867808178870703</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.413422019230552</v>
       </c>
       <c r="M19">
-        <v>1.699785577412072</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>12.56471387756136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.114254189283827</v>
+        <v>3.664567893663786</v>
       </c>
       <c r="C20">
-        <v>3.693120522894617</v>
+        <v>0.4127671925185439</v>
       </c>
       <c r="D20">
-        <v>0.3707070271966728</v>
+        <v>0.3006174093838467</v>
       </c>
       <c r="E20">
-        <v>0.1464881901892916</v>
+        <v>0.05808390974852529</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007132260687250103</v>
+        <v>0.0007688753367557859</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.48442287006174</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.01881941479199867</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.8253385337303172</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.4311277873922705</v>
       </c>
       <c r="M20">
-        <v>1.786737607642351</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>13.07479281227515</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.893589586622284</v>
+        <v>4.240569591614872</v>
       </c>
       <c r="C21">
-        <v>4.320470660658145</v>
+        <v>0.4848519552423056</v>
       </c>
       <c r="D21">
-        <v>0.4314479299012817</v>
+        <v>0.3469831989104364</v>
       </c>
       <c r="E21">
-        <v>0.1686967602074461</v>
+        <v>0.06374142028931828</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.000688646888671318</v>
+        <v>0.0007509998860807324</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.69389678394248</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.02135578734185017</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.9614348669099684</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.4930825806636818</v>
       </c>
       <c r="M21">
-        <v>2.098631627433562</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>14.85076942845672</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.458521035782496</v>
+        <v>4.641229629517682</v>
       </c>
       <c r="C22">
-        <v>4.766197561357785</v>
+        <v>0.535606285988564</v>
       </c>
       <c r="D22">
-        <v>0.4744989162036859</v>
+        <v>0.3788044004101607</v>
       </c>
       <c r="E22">
-        <v>0.1843447835444039</v>
+        <v>0.06762822130538737</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0006718507228998531</v>
+        <v>0.000739127272752462</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>18.24744203086198</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.02313718082954885</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.056330392582879</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.5357899538983304</v>
       </c>
       <c r="M22">
-        <v>2.321690966799892</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>16.06813048383896</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.150894600970105</v>
+        <v>4.424866670319602</v>
       </c>
       <c r="C23">
-        <v>4.524386890750293</v>
+        <v>0.5081326936600021</v>
       </c>
       <c r="D23">
-        <v>0.4511553285694561</v>
+        <v>0.3616621823501873</v>
       </c>
       <c r="E23">
-        <v>0.1758696628732963</v>
+        <v>0.06553403074774522</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.000680899927039184</v>
+        <v>0.0007454865439082561</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>17.40630909911363</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.02217293744673654</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.005061028933582</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.5127661225551492</v>
       </c>
       <c r="M23">
-        <v>2.200533012294059</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>15.41247338749963</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.102259476248321</v>
+        <v>3.655499943807456</v>
       </c>
       <c r="C24">
-        <v>3.683345683820846</v>
+        <v>0.4116401066496138</v>
       </c>
       <c r="D24">
-        <v>0.3697594411755887</v>
+        <v>0.2998812282541081</v>
       </c>
       <c r="E24">
-        <v>0.1461405436994738</v>
+        <v>0.05799414808774728</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007136188391879301</v>
+        <v>0.0007691653579530093</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.44978401481345</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.0187796331004435</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.8231988947055413</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.4301470496511257</v>
       </c>
       <c r="M24">
-        <v>1.781897764247262</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>13.0465710705148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.133753904362663</v>
+        <v>2.904119239163151</v>
       </c>
       <c r="C25">
-        <v>2.881060748821596</v>
+        <v>0.3189689476519533</v>
       </c>
       <c r="D25">
-        <v>0.2918929959748624</v>
+        <v>0.2381232647235692</v>
       </c>
       <c r="E25">
-        <v>0.1174522899439303</v>
+        <v>0.05047379534715191</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007470951486962112</v>
+        <v>0.0007943270780517649</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.58389785839969</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.01548789841749354</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.6461835842049908</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3482737887812704</v>
       </c>
       <c r="M25">
-        <v>1.386884628360477</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>10.67596154023596</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_4/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.396901051670284</v>
+        <v>3.6530422985212</v>
       </c>
       <c r="C2">
-        <v>0.2570377249787725</v>
+        <v>1.084903567247892</v>
       </c>
       <c r="D2">
-        <v>0.1954534288881291</v>
+        <v>0.2075270783923173</v>
       </c>
       <c r="E2">
-        <v>0.04529294093562442</v>
+        <v>1.445501738799294</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008128999529338077</v>
+        <v>0.269205422581706</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.1806201001688805</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.06180104628875505</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5269422194318025</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2922806832388147</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>9.033664802233062</v>
+        <v>0.9013151812210367</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.073837003157905</v>
+        <v>3.184460455245755</v>
       </c>
       <c r="C3">
-        <v>0.2177110253114307</v>
+        <v>0.9512252190232289</v>
       </c>
       <c r="D3">
-        <v>0.1677567710389951</v>
+        <v>0.1797441787437037</v>
       </c>
       <c r="E3">
-        <v>0.04193988020120187</v>
+        <v>1.240376075643212</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008256568426961294</v>
+        <v>0.2383909706256944</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.1740579068364454</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.06905240726397111</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4510529029680939</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.256276398866234</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>7.965076387828134</v>
+        <v>0.8217812348568287</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.883555537818921</v>
+        <v>2.897047799848281</v>
       </c>
       <c r="C4">
-        <v>0.1945337308831512</v>
+        <v>0.8692344093773272</v>
       </c>
       <c r="D4">
-        <v>0.1512128301309872</v>
+        <v>0.1628714027242921</v>
       </c>
       <c r="E4">
-        <v>0.03994194734401368</v>
+        <v>1.116879120381</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008336110662344669</v>
+        <v>0.2207833197284259</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.1708001135008459</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.07437247741238551</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4063577002494654</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2349323667951211</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>7.325545820712136</v>
+        <v>0.777333706743363</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.807774859585095</v>
+        <v>2.779954260870511</v>
       </c>
       <c r="C5">
-        <v>0.185290020467221</v>
+        <v>0.8358308118900766</v>
       </c>
       <c r="D5">
-        <v>0.1445691397547506</v>
+        <v>0.1560363718735971</v>
       </c>
       <c r="E5">
-        <v>0.03914087908889918</v>
+        <v>1.067075043772704</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008368878647268648</v>
+        <v>0.2139085960822626</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.1696533041741688</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.07674439038723513</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3885548080612082</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2264011372177492</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>7.068418348524119</v>
+        <v>0.7602337727893911</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.795290571922578</v>
+        <v>2.760511484290191</v>
       </c>
       <c r="C6">
-        <v>0.183766125483217</v>
+        <v>0.8302842896389961</v>
       </c>
       <c r="D6">
-        <v>0.1434713982448557</v>
+        <v>0.1549037133414117</v>
       </c>
       <c r="E6">
-        <v>0.03900859459893624</v>
+        <v>1.058834033786283</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008374342429884425</v>
+        <v>0.2127843790041837</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.1694734254042203</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.07715016242386064</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3856216541644812</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2249939188786954</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>7.025914633321065</v>
+        <v>0.7574529853555561</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.882526738763346</v>
+        <v>2.895468573780363</v>
       </c>
       <c r="C7">
-        <v>0.1944083043419624</v>
+        <v>0.8687839005590661</v>
       </c>
       <c r="D7">
-        <v>0.1511228560740818</v>
+        <v>0.1627790657442887</v>
       </c>
       <c r="E7">
-        <v>0.03993109350545687</v>
+        <v>1.116205450692789</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008336551092618079</v>
+        <v>0.2206894255309209</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.1707839321359401</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.07440365829487128</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4061160237715598</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2348166679993966</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>7.322064838357988</v>
+        <v>0.7770991052576903</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.283656505958675</v>
+        <v>3.491384568823037</v>
       </c>
       <c r="C8">
-        <v>0.243249154877816</v>
+        <v>1.038784204402674</v>
       </c>
       <c r="D8">
-        <v>0.1857961536555308</v>
+        <v>0.1979051736482376</v>
       </c>
       <c r="E8">
-        <v>0.04412276200953258</v>
+        <v>1.374206172065342</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.000817276434625226</v>
+        <v>0.2582897872492254</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.1781891161809739</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.0641123643100201</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5003376337652199</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2796919404371323</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>8.661333347089283</v>
+        <v>0.8729251834561467</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.148840647653913</v>
+        <v>4.664655564578482</v>
       </c>
       <c r="C9">
-        <v>0.3490068411547043</v>
+        <v>1.373559696488655</v>
       </c>
       <c r="D9">
-        <v>0.2584106218156705</v>
+        <v>0.2685582460014473</v>
       </c>
       <c r="E9">
-        <v>0.05294185210406965</v>
+        <v>1.904347774410283</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007858656316718028</v>
+        <v>0.343880038997753</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.1994762099680116</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.0515066435812237</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7037802011937728</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3750744688139633</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>11.45542860762038</v>
+        <v>1.100053244085814</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.856923727746391</v>
+        <v>5.533139835345537</v>
       </c>
       <c r="C10">
-        <v>0.4367304313893499</v>
+        <v>1.621487435082429</v>
       </c>
       <c r="D10">
-        <v>0.3161868346439292</v>
+        <v>0.3219947913088532</v>
       </c>
       <c r="E10">
-        <v>0.05998279243879878</v>
+        <v>2.316098373431743</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007627893144450213</v>
+        <v>0.4161849772744404</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.2202205012652882</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.04790589249845745</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.870746787501119</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4518921090144374</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.67147309252465</v>
+        <v>1.29753563970462</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.201931190512028</v>
+        <v>5.930556357722423</v>
       </c>
       <c r="C11">
-        <v>0.4799848747384772</v>
+        <v>1.734985801082644</v>
       </c>
       <c r="D11">
-        <v>0.3438964516642926</v>
+        <v>0.3467464185850702</v>
       </c>
       <c r="E11">
-        <v>0.06336454686282167</v>
+        <v>2.51020558151528</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007521676117893986</v>
+        <v>0.4516711144927683</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.2310102525191269</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.04775490850348163</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9522936446830101</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4889474059415733</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.73262042047872</v>
+        <v>1.395693768751954</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.336644471833552</v>
+        <v>6.081467784428639</v>
       </c>
       <c r="C12">
-        <v>0.4969746287914063</v>
+        <v>1.778093666073346</v>
       </c>
       <c r="D12">
-        <v>0.3546444511412972</v>
+        <v>0.3561930246936669</v>
       </c>
       <c r="E12">
-        <v>0.06467693976318856</v>
+        <v>2.584877496778887</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007481142901775783</v>
+        <v>0.4655331162859255</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.2353135250064895</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.04793568596925724</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9841723000990612</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5033520037645474</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.14396476647352</v>
+        <v>1.434217157894096</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.307436336754108</v>
+        <v>6.048946294810321</v>
       </c>
       <c r="C13">
-        <v>0.4932860324322519</v>
+        <v>1.768803459146511</v>
       </c>
       <c r="D13">
-        <v>0.3523174174850681</v>
+        <v>0.3541550815853469</v>
       </c>
       <c r="E13">
-        <v>0.06439276578107567</v>
+        <v>2.568740310715796</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007489888746366688</v>
+        <v>0.4625279468735641</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.234376677395403</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.0478857583230905</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9772586326160706</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5002318709992579</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.05491664788622</v>
+        <v>1.425857607990849</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.212927531005505</v>
+        <v>5.942963043411567</v>
       </c>
       <c r="C14">
-        <v>0.4813695466196464</v>
+        <v>1.738529577741019</v>
       </c>
       <c r="D14">
-        <v>0.3447752590742681</v>
+        <v>0.3475220587616832</v>
       </c>
       <c r="E14">
-        <v>0.06347184096700076</v>
+        <v>2.516324296761042</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007518348532237284</v>
+        <v>0.4528027359338296</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.2313597879601019</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.04776486517175549</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9548950225082251</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4901245608312905</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.76625899904121</v>
+        <v>1.398835038251519</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.155593875621662</v>
+        <v>5.878102322324196</v>
       </c>
       <c r="C15">
-        <v>0.4741542041734306</v>
+        <v>1.720003499866721</v>
       </c>
       <c r="D15">
-        <v>0.340190349304109</v>
+        <v>0.3434690519815717</v>
       </c>
       <c r="E15">
-        <v>0.06291209368759709</v>
+        <v>2.48437614690998</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007535735992250103</v>
+        <v>0.4469026152926148</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2295408922452964</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.04772256140790354</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9413332939949868</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4839843830263106</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.5907497623715</v>
+        <v>1.382464067536716</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.834899510424918</v>
+        <v>5.507221609448493</v>
       </c>
       <c r="C16">
-        <v>0.4339813225329578</v>
+        <v>1.614086563909382</v>
       </c>
       <c r="D16">
-        <v>0.3144086607930348</v>
+        <v>0.3203869621572721</v>
       </c>
       <c r="E16">
-        <v>0.05976587361501373</v>
+        <v>2.303565473541525</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007634799038311442</v>
+        <v>0.4139223237189213</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.219544491644271</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.04794768850746678</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8655456337928484</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4495184818778881</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.60334351345384</v>
+        <v>1.291301224022845</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.644524496438066</v>
+        <v>5.280352974822449</v>
       </c>
       <c r="C17">
-        <v>0.4102762356780971</v>
+        <v>1.549310405331994</v>
       </c>
       <c r="D17">
-        <v>0.2989899155902549</v>
+        <v>0.3063471399277802</v>
       </c>
       <c r="E17">
-        <v>0.05788547453665061</v>
+        <v>2.19451253270087</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007695167736037901</v>
+        <v>0.3943891173767611</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.213774088972599</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.04848306114906542</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8206092853088336</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4289597803961414</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.01240126309912</v>
+        <v>1.237613376868353</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.537125529142372</v>
+        <v>5.150078846090366</v>
       </c>
       <c r="C18">
-        <v>0.3969475788035908</v>
+        <v>1.512118446085651</v>
       </c>
       <c r="D18">
-        <v>0.2902522187193881</v>
+        <v>0.2983128579083427</v>
       </c>
       <c r="E18">
-        <v>0.05682031325219228</v>
+        <v>2.132415369145619</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007729782803853389</v>
+        <v>0.3833949524141929</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.2105809591843411</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.04892937734646452</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7952755629191017</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4173286918583869</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.67736675399755</v>
+        <v>1.207506603937958</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.501101970905324</v>
+        <v>5.106004781591196</v>
       </c>
       <c r="C19">
-        <v>0.392483836155975</v>
+        <v>1.499536414400438</v>
       </c>
       <c r="D19">
-        <v>0.2873149030585722</v>
+        <v>0.2955993499105176</v>
       </c>
       <c r="E19">
-        <v>0.05646232011734753</v>
+        <v>2.111492697388655</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.00077414879866056</v>
+        <v>0.3797124080834777</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.2095207782949728</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.04910356435458851</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.7867808178870703</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.413422019230552</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>12.56471387756136</v>
+        <v>1.197441247235076</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.664567893663786</v>
+        <v>5.304480739951714</v>
       </c>
       <c r="C20">
-        <v>0.4127671925185439</v>
+        <v>1.556198974519816</v>
       </c>
       <c r="D20">
-        <v>0.3006174093838467</v>
+        <v>0.3078373848925793</v>
       </c>
       <c r="E20">
-        <v>0.05808390974852529</v>
+        <v>2.206055199722911</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007688753367557859</v>
+        <v>0.3964431837774782</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.2143751750048324</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.0484115806575236</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8253385337303172</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4311277873922705</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.07479281227515</v>
+        <v>1.243247452323885</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.240569591614872</v>
+        <v>5.974080838425834</v>
       </c>
       <c r="C21">
-        <v>0.4848519552423056</v>
+        <v>1.747418043225252</v>
       </c>
       <c r="D21">
-        <v>0.3469831989104364</v>
+        <v>0.3494682536409073</v>
       </c>
       <c r="E21">
-        <v>0.06374142028931828</v>
+        <v>2.531686809565088</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007509998860807324</v>
+        <v>0.4556473190140196</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.2322398260514831</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.04779371178970848</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9614348669099684</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4930825806636818</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.85076942845672</v>
+        <v>1.406734170613817</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.641229629517682</v>
+        <v>6.414186873543258</v>
       </c>
       <c r="C22">
-        <v>0.535606285988564</v>
+        <v>1.873153928893089</v>
       </c>
       <c r="D22">
-        <v>0.3788044004101607</v>
+        <v>0.3771113867218077</v>
       </c>
       <c r="E22">
-        <v>0.06762822130538737</v>
+        <v>2.751421054290077</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.000739127272752462</v>
+        <v>0.4968409498997346</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.2451952126320833</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.04878992946123262</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.056330392582879</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5357899538983304</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.06813048383896</v>
+        <v>1.521554020335316</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.424866670319602</v>
+        <v>6.179037199438483</v>
       </c>
       <c r="C23">
-        <v>0.5081326936600021</v>
+        <v>1.805967184037968</v>
       </c>
       <c r="D23">
-        <v>0.3616621823501873</v>
+        <v>0.3623143667355748</v>
       </c>
       <c r="E23">
-        <v>0.06553403074774522</v>
+        <v>2.633441895277159</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007454865439082561</v>
+        <v>0.4746079643681469</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.2381553569857431</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.04812148523091864</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.005061028933582</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5127661225551492</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.41247338749963</v>
+        <v>1.459486864731019</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.655499943807456</v>
+        <v>5.293572098547543</v>
       </c>
       <c r="C24">
-        <v>0.4116401066496138</v>
+        <v>1.55308450255086</v>
       </c>
       <c r="D24">
-        <v>0.2998812282541081</v>
+        <v>0.3071635293979114</v>
       </c>
       <c r="E24">
-        <v>0.05799414808774728</v>
+        <v>2.20083490874859</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007691653579530093</v>
+        <v>0.3955138098881292</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.2141030383791644</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.04844346731093907</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.8231988947055413</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4301470496511257</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.0465710705148</v>
+        <v>1.240697934028532</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.904119239163151</v>
+        <v>4.346400298226172</v>
       </c>
       <c r="C25">
-        <v>0.3189689476519533</v>
+        <v>1.2827357853389</v>
       </c>
       <c r="D25">
-        <v>0.2381232647235692</v>
+        <v>0.2492111230795189</v>
       </c>
       <c r="E25">
-        <v>0.05047379534715191</v>
+        <v>1.757619921321051</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007943270780517649</v>
+        <v>0.3192420783386609</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.1928974533217485</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.05400375359850251</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6461835842049908</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3482737887812704</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>10.67596154023596</v>
+        <v>1.033756128264145</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_4/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.6530422985212</v>
+        <v>1.197179061263853</v>
       </c>
       <c r="C2">
-        <v>1.084903567247892</v>
+        <v>0.3542999774293492</v>
       </c>
       <c r="D2">
-        <v>0.2075270783923173</v>
+        <v>0.07977369863188244</v>
       </c>
       <c r="E2">
-        <v>1.445501738799294</v>
+        <v>0.4262032743756521</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.269205422581706</v>
+        <v>0.2241307714881842</v>
       </c>
       <c r="H2">
-        <v>0.1806201001688805</v>
+        <v>0.3804231017443058</v>
       </c>
       <c r="I2">
-        <v>0.06180104628875505</v>
+        <v>0.2288158210401221</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9013151812210367</v>
+        <v>1.12163897171763</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.184460455245755</v>
+        <v>1.046789645594743</v>
       </c>
       <c r="C3">
-        <v>0.9512252190232289</v>
+        <v>0.3111477231075526</v>
       </c>
       <c r="D3">
-        <v>0.1797441787437037</v>
+        <v>0.07219123885781187</v>
       </c>
       <c r="E3">
-        <v>1.240376075643212</v>
+        <v>0.3717201788608548</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.2383909706256944</v>
+        <v>0.2216185945061326</v>
       </c>
       <c r="H3">
-        <v>0.1740579068364454</v>
+        <v>0.3842275100089552</v>
       </c>
       <c r="I3">
-        <v>0.06905240726397111</v>
+        <v>0.2360415229776045</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.8217812348568287</v>
+        <v>1.123950320604308</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.897047799848281</v>
+        <v>0.9541225562241493</v>
       </c>
       <c r="C4">
-        <v>0.8692344093773272</v>
+        <v>0.2845318556371979</v>
       </c>
       <c r="D4">
-        <v>0.1628714027242921</v>
+        <v>0.06757029860568764</v>
       </c>
       <c r="E4">
-        <v>1.116879120381</v>
+        <v>0.3383604125574067</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.2207833197284259</v>
+        <v>0.220431523554403</v>
       </c>
       <c r="H4">
-        <v>0.1708001135008459</v>
+        <v>0.3868910134436589</v>
       </c>
       <c r="I4">
-        <v>0.07437247741238551</v>
+        <v>0.2407968291570963</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.777333706743363</v>
+        <v>1.126797602685457</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.779954260870511</v>
+        <v>0.9162799075818953</v>
       </c>
       <c r="C5">
-        <v>0.8358308118900766</v>
+        <v>0.2736560495529545</v>
       </c>
       <c r="D5">
-        <v>0.1560363718735971</v>
+        <v>0.06569593246118188</v>
       </c>
       <c r="E5">
-        <v>1.067075043772704</v>
+        <v>0.3247875541065213</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.2139085960822626</v>
+        <v>0.2200364023568397</v>
       </c>
       <c r="H5">
-        <v>0.1696533041741688</v>
+        <v>0.3880585369501546</v>
       </c>
       <c r="I5">
-        <v>0.07674439038723513</v>
+        <v>0.2428143937961043</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.7602337727893911</v>
+        <v>1.128314878432377</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.760511484290191</v>
+        <v>0.9099913966365989</v>
       </c>
       <c r="C6">
-        <v>0.8302842896389961</v>
+        <v>0.2718483589634388</v>
       </c>
       <c r="D6">
-        <v>0.1549037133414117</v>
+        <v>0.06538522037196515</v>
       </c>
       <c r="E6">
-        <v>1.058834033786283</v>
+        <v>0.3225350359862063</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.2127843790041837</v>
+        <v>0.2199761231683866</v>
       </c>
       <c r="H6">
-        <v>0.1694734254042203</v>
+        <v>0.3882573561641038</v>
       </c>
       <c r="I6">
-        <v>0.07715016242386064</v>
+        <v>0.2431542131780837</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.7574529853555561</v>
+        <v>1.128588319770074</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.895468573780363</v>
+        <v>0.9536125181534203</v>
       </c>
       <c r="C7">
-        <v>0.8687839005590661</v>
+        <v>0.2843852998506122</v>
       </c>
       <c r="D7">
-        <v>0.1627790657442887</v>
+        <v>0.06754498503823925</v>
       </c>
       <c r="E7">
-        <v>1.116205450692789</v>
+        <v>0.3381772795914202</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.2206894255309209</v>
+        <v>0.2204258369918648</v>
       </c>
       <c r="H7">
-        <v>0.1707839321359401</v>
+        <v>0.3869064268886362</v>
       </c>
       <c r="I7">
-        <v>0.07440365829487128</v>
+        <v>0.2408237164121285</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.7770991052576903</v>
+        <v>1.126816622599833</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.491384568823037</v>
+        <v>1.145394042866371</v>
       </c>
       <c r="C8">
-        <v>1.038784204402674</v>
+        <v>0.3394463761880786</v>
       </c>
       <c r="D8">
-        <v>0.1979051736482376</v>
+        <v>0.07715204189865688</v>
       </c>
       <c r="E8">
-        <v>1.374206172065342</v>
+        <v>0.4073970310551118</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.2582897872492254</v>
+        <v>0.2231903522899756</v>
       </c>
       <c r="H8">
-        <v>0.1781891161809739</v>
+        <v>0.3816667222062335</v>
       </c>
       <c r="I8">
-        <v>0.0641123643100201</v>
+        <v>0.2312408581325869</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.8729251834561467</v>
+        <v>1.122138240673891</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.664655564578482</v>
+        <v>1.518798957898639</v>
       </c>
       <c r="C9">
-        <v>1.373559696488655</v>
+        <v>0.446446057934736</v>
       </c>
       <c r="D9">
-        <v>0.2685582460014473</v>
+        <v>0.09626915846183692</v>
       </c>
       <c r="E9">
-        <v>1.904347774410283</v>
+        <v>0.5439668457514131</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.343880038997753</v>
+        <v>0.2314661566143172</v>
       </c>
       <c r="H9">
-        <v>0.1994762099680116</v>
+        <v>0.3740022780989278</v>
       </c>
       <c r="I9">
-        <v>0.0515066435812237</v>
+        <v>0.2149952446112753</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.100053244085814</v>
+        <v>1.124392713933844</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.533139835345537</v>
+        <v>1.791426862770265</v>
       </c>
       <c r="C10">
-        <v>1.621487435082429</v>
+        <v>0.524443957293272</v>
       </c>
       <c r="D10">
-        <v>0.3219947913088532</v>
+        <v>0.1104883493353128</v>
       </c>
       <c r="E10">
-        <v>2.316098373431743</v>
+        <v>0.6449468702703882</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4161849772744404</v>
+        <v>0.2393352877735708</v>
       </c>
       <c r="H10">
-        <v>0.2202205012652882</v>
+        <v>0.3699787154206149</v>
       </c>
       <c r="I10">
-        <v>0.04790589249845745</v>
+        <v>0.2046357307084943</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.29753563970462</v>
+        <v>1.133153516930889</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.930556357722423</v>
+        <v>1.91506569944994</v>
       </c>
       <c r="C11">
-        <v>1.734985801082644</v>
+        <v>0.5597900229861921</v>
       </c>
       <c r="D11">
-        <v>0.3467464185850702</v>
+        <v>0.1169958458894911</v>
       </c>
       <c r="E11">
-        <v>2.51020558151528</v>
+        <v>0.6910548711811515</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4516711144927683</v>
+        <v>0.2433141192691011</v>
       </c>
       <c r="H11">
-        <v>0.2310102525191269</v>
+        <v>0.3685008250765947</v>
       </c>
       <c r="I11">
-        <v>0.04775490850348163</v>
+        <v>0.2002702662215157</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.395693768751954</v>
+        <v>1.138711377249251</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.081467784428639</v>
+        <v>1.96182793499662</v>
       </c>
       <c r="C12">
-        <v>1.778093666073346</v>
+        <v>0.5731546940993439</v>
       </c>
       <c r="D12">
-        <v>0.3561930246936669</v>
+        <v>0.1194657439208555</v>
       </c>
       <c r="E12">
-        <v>2.584877496778887</v>
+        <v>0.7085417333968564</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4655331162859255</v>
+        <v>0.2448790261817635</v>
       </c>
       <c r="H12">
-        <v>0.2353135250064895</v>
+        <v>0.3679921504560184</v>
       </c>
       <c r="I12">
-        <v>0.04793568596925724</v>
+        <v>0.1986675267657922</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.434217157894096</v>
+        <v>1.141044487386807</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.048946294810321</v>
+        <v>1.951759427485456</v>
       </c>
       <c r="C13">
-        <v>1.768803459146511</v>
+        <v>0.5702772775582616</v>
       </c>
       <c r="D13">
-        <v>0.3541550815853469</v>
+        <v>0.1189335554786197</v>
       </c>
       <c r="E13">
-        <v>2.568740310715796</v>
+        <v>0.7047744011567971</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4625279468735641</v>
+        <v>0.2445393935775257</v>
       </c>
       <c r="H13">
-        <v>0.234376677395403</v>
+        <v>0.3680994311071686</v>
       </c>
       <c r="I13">
-        <v>0.0478857583230905</v>
+        <v>0.1990104581097167</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.425857607990849</v>
+        <v>1.140531811824218</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.942963043411567</v>
+        <v>1.918914014456504</v>
       </c>
       <c r="C14">
-        <v>1.738529577741019</v>
+        <v>0.5608899492234514</v>
       </c>
       <c r="D14">
-        <v>0.3475220587616832</v>
+        <v>0.1171989324983969</v>
       </c>
       <c r="E14">
-        <v>2.516324296761042</v>
+        <v>0.6924929775180004</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4528027359338296</v>
+        <v>0.2434416938142618</v>
       </c>
       <c r="H14">
-        <v>0.2313597879601019</v>
+        <v>0.3684579529299157</v>
       </c>
       <c r="I14">
-        <v>0.04776486517175549</v>
+        <v>0.200137395865978</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.398835038251519</v>
+        <v>1.138898731339623</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.878102322324196</v>
+        <v>1.898787744899607</v>
       </c>
       <c r="C15">
-        <v>1.720003499866721</v>
+        <v>0.5551373014575915</v>
       </c>
       <c r="D15">
-        <v>0.3434690519815717</v>
+        <v>0.1161371624392871</v>
       </c>
       <c r="E15">
-        <v>2.48437614690998</v>
+        <v>0.6849737982443997</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.4469026152926148</v>
+        <v>0.2427769258818415</v>
       </c>
       <c r="H15">
-        <v>0.2295408922452964</v>
+        <v>0.3686842043312026</v>
       </c>
       <c r="I15">
-        <v>0.04772256140790354</v>
+        <v>0.2008342504560066</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.382464067536716</v>
+        <v>1.137928245358836</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.507221609448493</v>
+        <v>1.783338908396104</v>
       </c>
       <c r="C16">
-        <v>1.614086563909382</v>
+        <v>0.5221312273677086</v>
       </c>
       <c r="D16">
-        <v>0.3203869621572721</v>
+        <v>0.1100638584119054</v>
       </c>
       <c r="E16">
-        <v>2.303565473541525</v>
+        <v>0.6419372355227608</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.4139223237189213</v>
+        <v>0.2390833629324334</v>
       </c>
       <c r="H16">
-        <v>0.219544491644271</v>
+        <v>0.3700824158534886</v>
       </c>
       <c r="I16">
-        <v>0.04794768850746678</v>
+        <v>0.2049280477015234</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.291301224022845</v>
+        <v>1.132822141038275</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.280352974822449</v>
+        <v>1.712415546329396</v>
       </c>
       <c r="C17">
-        <v>1.549310405331994</v>
+        <v>0.5018479016338233</v>
       </c>
       <c r="D17">
-        <v>0.3063471399277802</v>
+        <v>0.1063481196005966</v>
       </c>
       <c r="E17">
-        <v>2.19451253270087</v>
+        <v>0.6155811392726633</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.3943891173767611</v>
+        <v>0.236920287510614</v>
       </c>
       <c r="H17">
-        <v>0.213774088972599</v>
+        <v>0.3710306489859079</v>
       </c>
       <c r="I17">
-        <v>0.04848306114906542</v>
+        <v>0.2075286882477236</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.237613376868353</v>
+        <v>1.130094138349079</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.150078846090366</v>
+        <v>1.671586583016278</v>
       </c>
       <c r="C18">
-        <v>1.512118446085651</v>
+        <v>0.4901687452544365</v>
       </c>
       <c r="D18">
-        <v>0.2983128579083427</v>
+        <v>0.104214605091201</v>
       </c>
       <c r="E18">
-        <v>2.132415369145619</v>
+        <v>0.6004378438414477</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.3833949524141929</v>
+        <v>0.2357136623678855</v>
       </c>
       <c r="H18">
-        <v>0.2105809591843411</v>
+        <v>0.371609204397231</v>
       </c>
       <c r="I18">
-        <v>0.04892937734646452</v>
+        <v>0.2090571544803481</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.207506603937958</v>
+        <v>1.128672936836324</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.106004781591196</v>
+        <v>1.657756533851796</v>
       </c>
       <c r="C19">
-        <v>1.499536414400438</v>
+        <v>0.4862122173449279</v>
       </c>
       <c r="D19">
-        <v>0.2955993499105176</v>
+        <v>0.1034928650341271</v>
       </c>
       <c r="E19">
-        <v>2.111492697388655</v>
+        <v>0.5953132751862995</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.3797124080834777</v>
+        <v>0.2353115388318372</v>
       </c>
       <c r="H19">
-        <v>0.2095207782949728</v>
+        <v>0.3718107792523</v>
       </c>
       <c r="I19">
-        <v>0.04910356435458851</v>
+        <v>0.2095802602612249</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.197441247235076</v>
+        <v>1.128217068557518</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.304480739951714</v>
+        <v>1.719969173279537</v>
       </c>
       <c r="C20">
-        <v>1.556198974519816</v>
+        <v>0.5040084176996515</v>
       </c>
       <c r="D20">
-        <v>0.3078373848925793</v>
+        <v>0.1067432852717332</v>
       </c>
       <c r="E20">
-        <v>2.206055199722911</v>
+        <v>0.6183851163115719</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.3964431837774782</v>
+        <v>0.2371466616339291</v>
       </c>
       <c r="H20">
-        <v>0.2143751750048324</v>
+        <v>0.3709262742551402</v>
       </c>
       <c r="I20">
-        <v>0.0484115806575236</v>
+        <v>0.2072484635625997</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.243247452323885</v>
+        <v>1.130369217582228</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.974080838425834</v>
+        <v>1.928563076729006</v>
       </c>
       <c r="C21">
-        <v>1.747418043225252</v>
+        <v>0.5636477859827096</v>
       </c>
       <c r="D21">
-        <v>0.3494682536409073</v>
+        <v>0.1177082797625957</v>
       </c>
       <c r="E21">
-        <v>2.531686809565088</v>
+        <v>0.696099586352986</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4556473190140196</v>
+        <v>0.243762528537971</v>
       </c>
       <c r="H21">
-        <v>0.2322398260514831</v>
+        <v>0.368351260752604</v>
       </c>
       <c r="I21">
-        <v>0.04779371178970848</v>
+        <v>0.1998050163852483</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.406734170613817</v>
+        <v>1.139372187399886</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.414186873543258</v>
+        <v>2.064557322987525</v>
       </c>
       <c r="C22">
-        <v>1.873153928893089</v>
+        <v>0.6025080224183625</v>
       </c>
       <c r="D22">
-        <v>0.3771113867218077</v>
+        <v>0.1249074839498547</v>
       </c>
       <c r="E22">
-        <v>2.751421054290077</v>
+        <v>0.7470474599680585</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.4968409498997346</v>
+        <v>0.2484260504959792</v>
       </c>
       <c r="H22">
-        <v>0.2451952126320833</v>
+        <v>0.3669655696257053</v>
       </c>
       <c r="I22">
-        <v>0.04878992946123262</v>
+        <v>0.1952340815465607</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.521554020335316</v>
+        <v>1.146588930451401</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.179037199438483</v>
+        <v>1.99200594861037</v>
       </c>
       <c r="C23">
-        <v>1.805967184037968</v>
+        <v>0.5817785407214728</v>
       </c>
       <c r="D23">
-        <v>0.3623143667355748</v>
+        <v>0.1210621100664753</v>
       </c>
       <c r="E23">
-        <v>2.633441895277159</v>
+        <v>0.7198405658624409</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.4746079643681469</v>
+        <v>0.245905691300834</v>
       </c>
       <c r="H23">
-        <v>0.2381553569857431</v>
+        <v>0.3676778469397419</v>
       </c>
       <c r="I23">
-        <v>0.04812148523091864</v>
+        <v>0.1976466448584233</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.459486864731019</v>
+        <v>1.1426144946129</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.293572098547543</v>
+        <v>1.71655434712244</v>
       </c>
       <c r="C24">
-        <v>1.55308450255086</v>
+        <v>0.5030317044207777</v>
       </c>
       <c r="D24">
-        <v>0.3071635293979114</v>
+        <v>0.1065646224243437</v>
       </c>
       <c r="E24">
-        <v>2.20083490874859</v>
+        <v>0.6171174099114012</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.3955138098881292</v>
+        <v>0.237044202838419</v>
       </c>
       <c r="H24">
-        <v>0.2141030383791644</v>
+        <v>0.3709733580370767</v>
       </c>
       <c r="I24">
-        <v>0.04844346731093907</v>
+        <v>0.207375049373006</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.240697934028532</v>
+        <v>1.130244396019094</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.346400298226172</v>
+        <v>1.418078148630229</v>
       </c>
       <c r="C25">
-        <v>1.2827357853389</v>
+        <v>0.4176063291037053</v>
       </c>
       <c r="D25">
-        <v>0.2492111230795189</v>
+        <v>0.09106727232408218</v>
       </c>
       <c r="E25">
-        <v>1.757619921321051</v>
+        <v>0.5069182298679209</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.3192420783386609</v>
+        <v>0.228916700160795</v>
       </c>
       <c r="H25">
-        <v>0.1928974533217485</v>
+        <v>0.3757945785605585</v>
       </c>
       <c r="I25">
-        <v>0.05400375359850251</v>
+        <v>0.2191150508832322</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.033756128264145</v>
+        <v>1.122545123907742</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_4/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.197179061263853</v>
+        <v>3.653042298520973</v>
       </c>
       <c r="C2">
-        <v>0.3542999774293492</v>
+        <v>1.084903567248091</v>
       </c>
       <c r="D2">
-        <v>0.07977369863188244</v>
+        <v>0.2075270783921752</v>
       </c>
       <c r="E2">
-        <v>0.4262032743756521</v>
+        <v>1.445501738799308</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.2241307714881842</v>
+        <v>0.2692054225816776</v>
       </c>
       <c r="H2">
-        <v>0.3804231017443058</v>
+        <v>0.1806201001689942</v>
       </c>
       <c r="I2">
-        <v>0.2288158210401221</v>
+        <v>0.06180104628875505</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.12163897171763</v>
+        <v>0.9013151812210367</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.046789645594743</v>
+        <v>3.184460455245699</v>
       </c>
       <c r="C3">
-        <v>0.3111477231075526</v>
+        <v>0.9512252190231436</v>
       </c>
       <c r="D3">
-        <v>0.07219123885781187</v>
+        <v>0.179744178743718</v>
       </c>
       <c r="E3">
-        <v>0.3717201788608548</v>
+        <v>1.240376075643212</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.2216185945061326</v>
+        <v>0.2383909706256446</v>
       </c>
       <c r="H3">
-        <v>0.3842275100089552</v>
+        <v>0.1740579068365591</v>
       </c>
       <c r="I3">
-        <v>0.2360415229776045</v>
+        <v>0.06905240726397111</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.123950320604308</v>
+        <v>0.8217812348568998</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9541225562241493</v>
+        <v>2.897047799848622</v>
       </c>
       <c r="C4">
-        <v>0.2845318556371979</v>
+        <v>0.8692344093773272</v>
       </c>
       <c r="D4">
-        <v>0.06757029860568764</v>
+        <v>0.16287140272442</v>
       </c>
       <c r="E4">
-        <v>0.3383604125574067</v>
+        <v>1.116879120381</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.220431523554403</v>
+        <v>0.2207833197284259</v>
       </c>
       <c r="H4">
-        <v>0.3868910134436589</v>
+        <v>0.1708001135008459</v>
       </c>
       <c r="I4">
-        <v>0.2407968291570963</v>
+        <v>0.07437247741238551</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.126797602685457</v>
+        <v>0.777333706743363</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9162799075818953</v>
+        <v>2.779954260870568</v>
       </c>
       <c r="C5">
-        <v>0.2736560495529545</v>
+        <v>0.8358308118901334</v>
       </c>
       <c r="D5">
-        <v>0.06569593246118188</v>
+        <v>0.1560363718735829</v>
       </c>
       <c r="E5">
-        <v>0.3247875541065213</v>
+        <v>1.067075043772704</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.2200364023568397</v>
+        <v>0.2139085960823195</v>
       </c>
       <c r="H5">
-        <v>0.3880585369501546</v>
+        <v>0.1696533041741617</v>
       </c>
       <c r="I5">
-        <v>0.2428143937961043</v>
+        <v>0.07674439038724579</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.128314878432377</v>
+        <v>0.7602337727893769</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9099913966365989</v>
+        <v>2.760511484290134</v>
       </c>
       <c r="C6">
-        <v>0.2718483589634388</v>
+        <v>0.8302842896392235</v>
       </c>
       <c r="D6">
-        <v>0.06538522037196515</v>
+        <v>0.1549037133412554</v>
       </c>
       <c r="E6">
-        <v>0.3225350359862063</v>
+        <v>1.058834033786283</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.2199761231683866</v>
+        <v>0.2127843790042547</v>
       </c>
       <c r="H6">
-        <v>0.3882573561641038</v>
+        <v>0.1694734254041066</v>
       </c>
       <c r="I6">
-        <v>0.2431542131780837</v>
+        <v>0.07715016242386596</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.128588319770074</v>
+        <v>0.7574529853555703</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9536125181534203</v>
+        <v>2.89546857378042</v>
       </c>
       <c r="C7">
-        <v>0.2843852998506122</v>
+        <v>0.8687839005592082</v>
       </c>
       <c r="D7">
-        <v>0.06754498503823925</v>
+        <v>0.1627790657441324</v>
       </c>
       <c r="E7">
-        <v>0.3381772795914202</v>
+        <v>1.116205450692817</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.2204258369918648</v>
+        <v>0.2206894255309848</v>
       </c>
       <c r="H7">
-        <v>0.3869064268886362</v>
+        <v>0.1707839321359401</v>
       </c>
       <c r="I7">
-        <v>0.2408237164121285</v>
+        <v>0.0744036582948695</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.126816622599833</v>
+        <v>0.777099105257733</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.145394042866371</v>
+        <v>3.491384568823037</v>
       </c>
       <c r="C8">
-        <v>0.3394463761880786</v>
+        <v>1.038784204402475</v>
       </c>
       <c r="D8">
-        <v>0.07715204189865688</v>
+        <v>0.1979051736482234</v>
       </c>
       <c r="E8">
-        <v>0.4073970310551118</v>
+        <v>1.3742061720653</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.2231903522899756</v>
+        <v>0.2582897872492254</v>
       </c>
       <c r="H8">
-        <v>0.3816667222062335</v>
+        <v>0.1781891161809739</v>
       </c>
       <c r="I8">
-        <v>0.2312408581325869</v>
+        <v>0.06411236431001832</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.122138240673891</v>
+        <v>0.8729251834562035</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.518798957898639</v>
+        <v>4.664655564578538</v>
       </c>
       <c r="C9">
-        <v>0.446446057934736</v>
+        <v>1.373559696488883</v>
       </c>
       <c r="D9">
-        <v>0.09626915846183692</v>
+        <v>0.2685582460013052</v>
       </c>
       <c r="E9">
-        <v>0.5439668457514131</v>
+        <v>1.904347774410311</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.2314661566143172</v>
+        <v>0.3438800389977956</v>
       </c>
       <c r="H9">
-        <v>0.3740022780989278</v>
+        <v>0.1994762099678979</v>
       </c>
       <c r="I9">
-        <v>0.2149952446112753</v>
+        <v>0.05150664358120771</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.124392713933844</v>
+        <v>1.100053244085785</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.791426862770265</v>
+        <v>5.533139835345253</v>
       </c>
       <c r="C10">
-        <v>0.524443957293272</v>
+        <v>1.621487435082145</v>
       </c>
       <c r="D10">
-        <v>0.1104883493353128</v>
+        <v>0.3219947913090238</v>
       </c>
       <c r="E10">
-        <v>0.6449468702703882</v>
+        <v>2.3160983734317</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.2393352877735708</v>
+        <v>0.4161849772744688</v>
       </c>
       <c r="H10">
-        <v>0.3699787154206149</v>
+        <v>0.2202205012652882</v>
       </c>
       <c r="I10">
-        <v>0.2046357307084943</v>
+        <v>0.04790589249845567</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.133153516930889</v>
+        <v>1.297535639704677</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.91506569944994</v>
+        <v>5.93055635772248</v>
       </c>
       <c r="C11">
-        <v>0.5597900229861921</v>
+        <v>1.734985801082701</v>
       </c>
       <c r="D11">
-        <v>0.1169958458894911</v>
+        <v>0.3467464185852407</v>
       </c>
       <c r="E11">
-        <v>0.6910548711811515</v>
+        <v>2.510205581515308</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.2433141192691011</v>
+        <v>0.451671114492882</v>
       </c>
       <c r="H11">
-        <v>0.3685008250765947</v>
+        <v>0.2310102525191269</v>
       </c>
       <c r="I11">
-        <v>0.2002702662215157</v>
+        <v>0.04775490850348518</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.138711377249251</v>
+        <v>1.395693768751926</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.96182793499662</v>
+        <v>6.081467784428526</v>
       </c>
       <c r="C12">
-        <v>0.5731546940993439</v>
+        <v>1.778093666073289</v>
       </c>
       <c r="D12">
-        <v>0.1194657439208555</v>
+        <v>0.3561930246935674</v>
       </c>
       <c r="E12">
-        <v>0.7085417333968564</v>
+        <v>2.584877496778901</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.2448790261817635</v>
+        <v>0.465533116286025</v>
       </c>
       <c r="H12">
-        <v>0.3679921504560184</v>
+        <v>0.2353135250063758</v>
       </c>
       <c r="I12">
-        <v>0.1986675267657922</v>
+        <v>0.04793568596925724</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.141044487386807</v>
+        <v>1.434217157894096</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.951759427485456</v>
+        <v>6.048946294810321</v>
       </c>
       <c r="C13">
-        <v>0.5702772775582616</v>
+        <v>1.768803459146795</v>
       </c>
       <c r="D13">
-        <v>0.1189335554786197</v>
+        <v>0.3541550815855317</v>
       </c>
       <c r="E13">
-        <v>0.7047744011567971</v>
+        <v>2.568740310715825</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.2445393935775257</v>
+        <v>0.4625279468735499</v>
       </c>
       <c r="H13">
-        <v>0.3680994311071686</v>
+        <v>0.234376677395403</v>
       </c>
       <c r="I13">
-        <v>0.1990104581097167</v>
+        <v>0.0478857583230905</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.140531811824218</v>
+        <v>1.425857607990764</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.918914014456504</v>
+        <v>5.942963043412021</v>
       </c>
       <c r="C14">
-        <v>0.5608899492234514</v>
+        <v>1.738529577740906</v>
       </c>
       <c r="D14">
-        <v>0.1171989324983969</v>
+        <v>0.3475220587616832</v>
       </c>
       <c r="E14">
-        <v>0.6924929775180004</v>
+        <v>2.516324296761027</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.2434416938142618</v>
+        <v>0.4528027359337727</v>
       </c>
       <c r="H14">
-        <v>0.3684579529299157</v>
+        <v>0.2313597879599882</v>
       </c>
       <c r="I14">
-        <v>0.200137395865978</v>
+        <v>0.04776486517175371</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.138898731339623</v>
+        <v>1.398835038251491</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.898787744899607</v>
+        <v>5.878102322324537</v>
       </c>
       <c r="C15">
-        <v>0.5551373014575915</v>
+        <v>1.720003499867175</v>
       </c>
       <c r="D15">
-        <v>0.1161371624392871</v>
+        <v>0.3434690519814581</v>
       </c>
       <c r="E15">
-        <v>0.6849737982443997</v>
+        <v>2.484376146909966</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.2427769258818415</v>
+        <v>0.446902615292629</v>
       </c>
       <c r="H15">
-        <v>0.3686842043312026</v>
+        <v>0.2295408922452964</v>
       </c>
       <c r="I15">
-        <v>0.2008342504560066</v>
+        <v>0.04772256140790354</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.137928245358836</v>
+        <v>1.382464067536773</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.783338908396104</v>
+        <v>5.507221609448777</v>
       </c>
       <c r="C16">
-        <v>0.5221312273677086</v>
+        <v>1.614086563909837</v>
       </c>
       <c r="D16">
-        <v>0.1100638584119054</v>
+        <v>0.3203869621571158</v>
       </c>
       <c r="E16">
-        <v>0.6419372355227608</v>
+        <v>2.303565473541497</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.2390833629324334</v>
+        <v>0.4139223237188503</v>
       </c>
       <c r="H16">
-        <v>0.3700824158534886</v>
+        <v>0.2195444916441573</v>
       </c>
       <c r="I16">
-        <v>0.2049280477015234</v>
+        <v>0.047947688507465</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.132822141038275</v>
+        <v>1.291301224022817</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.712415546329396</v>
+        <v>5.280352974822733</v>
       </c>
       <c r="C17">
-        <v>0.5018479016338233</v>
+        <v>1.549310405332164</v>
       </c>
       <c r="D17">
-        <v>0.1063481196005966</v>
+        <v>0.3063471399276807</v>
       </c>
       <c r="E17">
-        <v>0.6155811392726633</v>
+        <v>2.19451253270087</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.236920287510614</v>
+        <v>0.3943891173767611</v>
       </c>
       <c r="H17">
-        <v>0.3710306489859079</v>
+        <v>0.2137740889725848</v>
       </c>
       <c r="I17">
-        <v>0.2075286882477236</v>
+        <v>0.04848306114906364</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.130094138349079</v>
+        <v>1.237613376868381</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.671586583016278</v>
+        <v>5.150078846090366</v>
       </c>
       <c r="C18">
-        <v>0.4901687452544365</v>
+        <v>1.512118446085367</v>
       </c>
       <c r="D18">
-        <v>0.104214605091201</v>
+        <v>0.2983128579082575</v>
       </c>
       <c r="E18">
-        <v>0.6004378438414477</v>
+        <v>2.13241536914559</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.2357136623678855</v>
+        <v>0.3833949524141502</v>
       </c>
       <c r="H18">
-        <v>0.371609204397231</v>
+        <v>0.2105809591843411</v>
       </c>
       <c r="I18">
-        <v>0.2090571544803481</v>
+        <v>0.04892937734647518</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.128672936836324</v>
+        <v>1.207506603937901</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.657756533851796</v>
+        <v>5.106004781591309</v>
       </c>
       <c r="C19">
-        <v>0.4862122173449279</v>
+        <v>1.499536414400438</v>
       </c>
       <c r="D19">
-        <v>0.1034928650341271</v>
+        <v>0.2955993499105318</v>
       </c>
       <c r="E19">
-        <v>0.5953132751862995</v>
+        <v>2.111492697388698</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.2353115388318372</v>
+        <v>0.3797124080834919</v>
       </c>
       <c r="H19">
-        <v>0.3718107792523</v>
+        <v>0.2095207782949728</v>
       </c>
       <c r="I19">
-        <v>0.2095802602612249</v>
+        <v>0.0491035643545743</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.128217068557518</v>
+        <v>1.197441247235076</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.719969173279537</v>
+        <v>5.304480739951714</v>
       </c>
       <c r="C20">
-        <v>0.5040084176996515</v>
+        <v>1.556198974519702</v>
       </c>
       <c r="D20">
-        <v>0.1067432852717332</v>
+        <v>0.3078373848926219</v>
       </c>
       <c r="E20">
-        <v>0.6183851163115719</v>
+        <v>2.206055199722897</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.2371466616339291</v>
+        <v>0.3964431837774924</v>
       </c>
       <c r="H20">
-        <v>0.3709262742551402</v>
+        <v>0.2143751750048324</v>
       </c>
       <c r="I20">
-        <v>0.2072484635625997</v>
+        <v>0.04841158065750761</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.130369217582228</v>
+        <v>1.243247452323885</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.928563076729006</v>
+        <v>5.974080838425834</v>
       </c>
       <c r="C21">
-        <v>0.5636477859827096</v>
+        <v>1.747418043225537</v>
       </c>
       <c r="D21">
-        <v>0.1177082797625957</v>
+        <v>0.3494682536409073</v>
       </c>
       <c r="E21">
-        <v>0.696099586352986</v>
+        <v>2.531686809565102</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.243762528537971</v>
+        <v>0.4556473190140196</v>
       </c>
       <c r="H21">
-        <v>0.368351260752604</v>
+        <v>0.2322398260513694</v>
       </c>
       <c r="I21">
-        <v>0.1998050163852483</v>
+        <v>0.04779371178970848</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.139372187399886</v>
+        <v>1.406734170613817</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.064557322987525</v>
+        <v>6.41418687354286</v>
       </c>
       <c r="C22">
-        <v>0.6025080224183625</v>
+        <v>1.873153928892634</v>
       </c>
       <c r="D22">
-        <v>0.1249074839498547</v>
+        <v>0.3771113867218645</v>
       </c>
       <c r="E22">
-        <v>0.7470474599680585</v>
+        <v>2.751421054290063</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.2484260504959792</v>
+        <v>0.4968409498996778</v>
       </c>
       <c r="H22">
-        <v>0.3669655696257053</v>
+        <v>0.2451952126320833</v>
       </c>
       <c r="I22">
-        <v>0.1952340815465607</v>
+        <v>0.04878992946123262</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.146588930451401</v>
+        <v>1.52155402033523</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.99200594861037</v>
+        <v>6.179037199438483</v>
       </c>
       <c r="C23">
-        <v>0.5817785407214728</v>
+        <v>1.805967184037968</v>
       </c>
       <c r="D23">
-        <v>0.1210621100664753</v>
+        <v>0.3623143667355322</v>
       </c>
       <c r="E23">
-        <v>0.7198405658624409</v>
+        <v>2.633441895277144</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.245905691300834</v>
+        <v>0.4746079643681185</v>
       </c>
       <c r="H23">
-        <v>0.3676778469397419</v>
+        <v>0.2381553569857431</v>
       </c>
       <c r="I23">
-        <v>0.1976466448584233</v>
+        <v>0.04812148523091508</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.1426144946129</v>
+        <v>1.459486864731105</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.71655434712244</v>
+        <v>5.293572098547543</v>
       </c>
       <c r="C24">
-        <v>0.5030317044207777</v>
+        <v>1.553084502551087</v>
       </c>
       <c r="D24">
-        <v>0.1065646224243437</v>
+        <v>0.3071635293978403</v>
       </c>
       <c r="E24">
-        <v>0.6171174099114012</v>
+        <v>2.20083490874859</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.237044202838419</v>
+        <v>0.3955138098881434</v>
       </c>
       <c r="H24">
-        <v>0.3709733580370767</v>
+        <v>0.2141030383791644</v>
       </c>
       <c r="I24">
-        <v>0.207375049373006</v>
+        <v>0.04844346731093907</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.130244396019094</v>
+        <v>1.24069793402856</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.418078148630229</v>
+        <v>4.346400298226172</v>
       </c>
       <c r="C25">
-        <v>0.4176063291037053</v>
+        <v>1.282735785339071</v>
       </c>
       <c r="D25">
-        <v>0.09106727232408218</v>
+        <v>0.2492111230794052</v>
       </c>
       <c r="E25">
-        <v>0.5069182298679209</v>
+        <v>1.757619921321037</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.228916700160795</v>
+        <v>0.3192420783386041</v>
       </c>
       <c r="H25">
-        <v>0.3757945785605585</v>
+        <v>0.1928974533217485</v>
       </c>
       <c r="I25">
-        <v>0.2191150508832322</v>
+        <v>0.05400375359850251</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.122545123907742</v>
+        <v>1.033756128264088</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_4/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.653042298520973</v>
+        <v>1.115569416877975</v>
       </c>
       <c r="C2">
-        <v>1.084903567248091</v>
+        <v>0.1609118685354289</v>
       </c>
       <c r="D2">
-        <v>0.2075270783921752</v>
+        <v>0.1948231415809829</v>
       </c>
       <c r="E2">
-        <v>1.445501738799308</v>
+        <v>0.08119217947291091</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.2692054225816776</v>
+        <v>0.4154773745282512</v>
       </c>
       <c r="H2">
-        <v>0.1806201001689942</v>
+        <v>0.002172173044260761</v>
       </c>
       <c r="I2">
-        <v>0.06180104628875505</v>
+        <v>0.003966042357884003</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3591943494753664</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.40799902022626</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.996192207565656</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.271770637356056</v>
       </c>
       <c r="O2">
-        <v>0.9013151812210367</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.579837166795599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.184460455245699</v>
+        <v>0.9717357269251465</v>
       </c>
       <c r="C3">
-        <v>0.9512252190231436</v>
+        <v>0.1523375897589219</v>
       </c>
       <c r="D3">
-        <v>0.179744178743718</v>
+        <v>0.1693200569507951</v>
       </c>
       <c r="E3">
-        <v>1.240376075643212</v>
+        <v>0.07447644141869603</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.2383909706256446</v>
+        <v>0.4040655068729464</v>
       </c>
       <c r="H3">
-        <v>0.1740579068365591</v>
+        <v>0.003417966723712196</v>
       </c>
       <c r="I3">
-        <v>0.06905240726397111</v>
+        <v>0.005492332679375433</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.3582397231349219</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4075246369985344</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.8725996286933366</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.239034537467063</v>
       </c>
       <c r="O3">
-        <v>0.8217812348568998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.553352929287243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.897047799848622</v>
+        <v>0.8831606304681259</v>
       </c>
       <c r="C4">
-        <v>0.8692344093773272</v>
+        <v>0.147083697430034</v>
       </c>
       <c r="D4">
-        <v>0.16287140272442</v>
+        <v>0.1537618296010095</v>
       </c>
       <c r="E4">
-        <v>1.116879120381</v>
+        <v>0.07031283257640908</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.2207833197284259</v>
+        <v>0.3974118926319363</v>
       </c>
       <c r="H4">
-        <v>0.1708001135008459</v>
+        <v>0.004358295999560113</v>
       </c>
       <c r="I4">
-        <v>0.07437247741238551</v>
+        <v>0.006638608092282894</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.3579030218898751</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4074379466610125</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.7966954214054738</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2189550391511119</v>
       </c>
       <c r="O4">
-        <v>0.777333706743363</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.538354922861544</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.779954260870568</v>
+        <v>0.8466634553295478</v>
       </c>
       <c r="C5">
-        <v>0.8358308118901334</v>
+        <v>0.1451075055428177</v>
       </c>
       <c r="D5">
-        <v>0.1560363718735829</v>
+        <v>0.1474433807272391</v>
       </c>
       <c r="E5">
-        <v>1.067075043772704</v>
+        <v>0.06853901086161507</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.2139085960823195</v>
+        <v>0.3943018450593527</v>
       </c>
       <c r="H5">
-        <v>0.1696533041741617</v>
+        <v>0.004786546674548586</v>
       </c>
       <c r="I5">
-        <v>0.07674439038724579</v>
+        <v>0.007236728222157041</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3575740280690383</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4070251061108259</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.7660950395002004</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2108471751411969</v>
       </c>
       <c r="O5">
-        <v>0.7602337727893769</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.530994300727002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.760511484290134</v>
+        <v>0.8401912125784463</v>
       </c>
       <c r="C6">
-        <v>0.8302842896392235</v>
+        <v>0.1449814883783489</v>
       </c>
       <c r="D6">
-        <v>0.1549037133412554</v>
+        <v>0.1463945109934741</v>
       </c>
       <c r="E6">
-        <v>1.058834033786283</v>
+        <v>0.06816224158178841</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.2127843790042547</v>
+        <v>0.3931998690369056</v>
       </c>
       <c r="H6">
-        <v>0.1694734254041066</v>
+        <v>0.004863496363720299</v>
       </c>
       <c r="I6">
-        <v>0.07715016242386596</v>
+        <v>0.007444605492102241</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.3572141710947676</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4064377518723852</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.7614314833930109</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.209588612934084</v>
       </c>
       <c r="O6">
-        <v>0.7574529853555703</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.527891340877346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.89546857378042</v>
+        <v>0.8815512367985718</v>
       </c>
       <c r="C7">
-        <v>0.8687839005592082</v>
+        <v>0.1476111771618775</v>
       </c>
       <c r="D7">
-        <v>0.1627790657441324</v>
+        <v>0.1536737580834853</v>
       </c>
       <c r="E7">
-        <v>1.116205450692817</v>
+        <v>0.07006593492359414</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.2206894255309848</v>
+        <v>0.3957578781517128</v>
       </c>
       <c r="H7">
-        <v>0.1707839321359401</v>
+        <v>0.004372294043230029</v>
       </c>
       <c r="I7">
-        <v>0.0744036582948695</v>
+        <v>0.006918420583458484</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.3570566962802459</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.40600939867835</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.7974290929912513</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2190856811197506</v>
       </c>
       <c r="O7">
-        <v>0.777099105257733</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.533074974141428</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.491384568823037</v>
+        <v>1.064531534818911</v>
       </c>
       <c r="C8">
-        <v>1.038784204402475</v>
+        <v>0.158699844553837</v>
       </c>
       <c r="D8">
-        <v>0.1979051736482234</v>
+        <v>0.1860027307084806</v>
       </c>
       <c r="E8">
-        <v>1.3742061720653</v>
+        <v>0.0785891412742572</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.2582897872492254</v>
+        <v>0.4093423552446183</v>
       </c>
       <c r="H8">
-        <v>0.1781891161809739</v>
+        <v>0.00257222618318842</v>
       </c>
       <c r="I8">
-        <v>0.06411236431001832</v>
+        <v>0.004773674385177173</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.3577081826691924</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.4059235973777469</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.9551100689709529</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2607985492832228</v>
       </c>
       <c r="O8">
-        <v>0.8729251834562035</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.563619823489404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.664655564578538</v>
+        <v>1.423509727922379</v>
       </c>
       <c r="C9">
-        <v>1.373559696488883</v>
+        <v>0.1796021004323478</v>
       </c>
       <c r="D9">
-        <v>0.2685582460013052</v>
+        <v>0.2503439550308002</v>
       </c>
       <c r="E9">
-        <v>1.904347774410311</v>
+        <v>0.09539981588567059</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.3438800389977956</v>
+        <v>0.4418564519147736</v>
       </c>
       <c r="H9">
-        <v>0.1994762099678979</v>
+        <v>0.0005078496079355954</v>
       </c>
       <c r="I9">
-        <v>0.05150664358120771</v>
+        <v>0.00190805640935654</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.3625386247321103</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.4099775235133087</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.262395344219783</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.3424228975530639</v>
       </c>
       <c r="O9">
-        <v>1.100053244085785</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.643350293096432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.533139835345253</v>
+        <v>1.681622531937393</v>
       </c>
       <c r="C10">
-        <v>1.621487435082145</v>
+        <v>0.1976235476458257</v>
       </c>
       <c r="D10">
-        <v>0.3219947913090238</v>
+        <v>0.2983612592578169</v>
       </c>
       <c r="E10">
-        <v>2.3160983734317</v>
+        <v>0.1024488412632287</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4161849772744688</v>
+        <v>0.4593850578136909</v>
       </c>
       <c r="H10">
-        <v>0.2202205012652882</v>
+        <v>0.0002063923828208303</v>
       </c>
       <c r="I10">
-        <v>0.04790589249845567</v>
+        <v>0.001150474702138027</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.3631340282430244</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.4072518159668412</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.493383169323351</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3852161885761376</v>
       </c>
       <c r="O10">
-        <v>1.297535639704677</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.682224559231059</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.93055635772248</v>
+        <v>1.759851282356976</v>
       </c>
       <c r="C11">
-        <v>1.734985801082701</v>
+        <v>0.2288270105213286</v>
       </c>
       <c r="D11">
-        <v>0.3467464185852407</v>
+        <v>0.3201638048421529</v>
       </c>
       <c r="E11">
-        <v>2.510205581515308</v>
+        <v>0.06852417349336548</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.451671114492882</v>
+        <v>0.4010598555952356</v>
       </c>
       <c r="H11">
-        <v>0.2310102525191269</v>
+        <v>0.01878062972777883</v>
       </c>
       <c r="I11">
-        <v>0.04775490850348518</v>
+        <v>0.001558948763295653</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.3294924775217396</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.3538908307309789</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.637566377406557</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2665550109336294</v>
       </c>
       <c r="O11">
-        <v>1.395693768751926</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.488338594176128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.081467784428526</v>
+        <v>1.772475785695747</v>
       </c>
       <c r="C12">
-        <v>1.778093666073289</v>
+        <v>0.2544193310933025</v>
       </c>
       <c r="D12">
-        <v>0.3561930246935674</v>
+        <v>0.3283592770845729</v>
       </c>
       <c r="E12">
-        <v>2.584877496778901</v>
+        <v>0.04789767151995861</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.465533116286025</v>
+        <v>0.3532830596827452</v>
       </c>
       <c r="H12">
-        <v>0.2353135250063758</v>
+        <v>0.05747924943186433</v>
       </c>
       <c r="I12">
-        <v>0.04793568596925724</v>
+        <v>0.001542545243867544</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.3033902433614557</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.3152840887288697</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.710308080517024</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1762849961080235</v>
       </c>
       <c r="O12">
-        <v>1.434217157894096</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.332475096963677</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.048946294810321</v>
+        <v>1.733416287852151</v>
       </c>
       <c r="C13">
-        <v>1.768803459146795</v>
+        <v>0.2777013234751848</v>
       </c>
       <c r="D13">
-        <v>0.3541550815855317</v>
+        <v>0.3264064502626383</v>
       </c>
       <c r="E13">
-        <v>2.568740310715825</v>
+        <v>0.03590051125732607</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4625279468735499</v>
+        <v>0.3082114600330215</v>
       </c>
       <c r="H13">
-        <v>0.234376677395403</v>
+        <v>0.1132812999909447</v>
       </c>
       <c r="I13">
-        <v>0.0478857583230905</v>
+        <v>0.001560545585482132</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2801617757385912</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2834298510799051</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.733362176168015</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1033403476383867</v>
       </c>
       <c r="O13">
-        <v>1.425857607990764</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1.188270458701808</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.942963043412021</v>
+        <v>1.682446582712799</v>
       </c>
       <c r="C14">
-        <v>1.738529577740906</v>
+        <v>0.2935571863522028</v>
       </c>
       <c r="D14">
-        <v>0.3475220587616832</v>
+        <v>0.3204434266069711</v>
       </c>
       <c r="E14">
-        <v>2.516324296761027</v>
+        <v>0.03262325699997981</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4528027359337727</v>
+        <v>0.2780998984796668</v>
       </c>
       <c r="H14">
-        <v>0.2313597879599882</v>
+        <v>0.1626849256213916</v>
       </c>
       <c r="I14">
-        <v>0.04776486517175371</v>
+        <v>0.001689452789594093</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2652601137635102</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.264503373970653</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.727321507836024</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.06313957054874919</v>
       </c>
       <c r="O14">
-        <v>1.398835038251491</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1.093177565154576</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.878102322324537</v>
+        <v>1.658706175579056</v>
       </c>
       <c r="C15">
-        <v>1.720003499867175</v>
+        <v>0.2967917318415942</v>
       </c>
       <c r="D15">
-        <v>0.3434690519814581</v>
+        <v>0.3168297078681945</v>
       </c>
       <c r="E15">
-        <v>2.484376146909966</v>
+        <v>0.03247238913063621</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.446902615292629</v>
+        <v>0.2705959185606659</v>
       </c>
       <c r="H15">
-        <v>0.2295408922452964</v>
+        <v>0.1752231317362742</v>
       </c>
       <c r="I15">
-        <v>0.04772256140790354</v>
+        <v>0.001858733092229059</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2618766494943685</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.260556298874123</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.715456155470179</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.05465862741816707</v>
       </c>
       <c r="O15">
-        <v>1.382464067536773</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1.070150553462128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.507221609448777</v>
+        <v>1.555536154806106</v>
       </c>
       <c r="C16">
-        <v>1.614086563909837</v>
+        <v>0.2837899198308804</v>
       </c>
       <c r="D16">
-        <v>0.3203869621571158</v>
+        <v>0.2963114462770875</v>
       </c>
       <c r="E16">
-        <v>2.303565473541497</v>
+        <v>0.03211710606628815</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.4139223237188503</v>
+        <v>0.27139183371321</v>
       </c>
       <c r="H16">
-        <v>0.2195444916441573</v>
+        <v>0.162655394610411</v>
       </c>
       <c r="I16">
-        <v>0.047947688507465</v>
+        <v>0.002270423281600209</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2657257925630958</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2673284991407971</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.610558154631889</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.0534095117458051</v>
       </c>
       <c r="O16">
-        <v>1.291301224022817</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1.079698870296014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.280352974822733</v>
+        <v>1.503506245152778</v>
       </c>
       <c r="C17">
-        <v>1.549310405332164</v>
+        <v>0.2652493912307534</v>
       </c>
       <c r="D17">
-        <v>0.3063471399276807</v>
+        <v>0.2838219695459685</v>
       </c>
       <c r="E17">
-        <v>2.19451253270087</v>
+        <v>0.03270118658923649</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.3943891173767611</v>
+        <v>0.2877241728355173</v>
       </c>
       <c r="H17">
-        <v>0.2137740889725848</v>
+        <v>0.1249858768837413</v>
       </c>
       <c r="I17">
-        <v>0.04848306114906364</v>
+        <v>0.00256097988910664</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2765132347884744</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2822460499470996</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.533644503047014</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.07170524436163817</v>
       </c>
       <c r="O17">
-        <v>1.237613376868381</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1.136787819091708</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.150078846090366</v>
+        <v>1.49016625809503</v>
       </c>
       <c r="C18">
-        <v>1.512118446085367</v>
+        <v>0.2407598746407018</v>
       </c>
       <c r="D18">
-        <v>0.2983128579082575</v>
+        <v>0.2767279062653927</v>
       </c>
       <c r="E18">
-        <v>2.13241536914559</v>
+        <v>0.03869221766790787</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.3833949524141502</v>
+        <v>0.321758744611131</v>
       </c>
       <c r="H18">
-        <v>0.2105809591843411</v>
+        <v>0.07216377761216108</v>
       </c>
       <c r="I18">
-        <v>0.04892937734647518</v>
+        <v>0.002411554806443839</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2956713074859749</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.3085664480309767</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.471443699502345</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1185306703452369</v>
       </c>
       <c r="O18">
-        <v>1.207506603937901</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1.248986326744756</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.106004781591309</v>
+        <v>1.506557008958083</v>
       </c>
       <c r="C19">
-        <v>1.499536414400438</v>
+        <v>0.2176724134673691</v>
       </c>
       <c r="D19">
-        <v>0.2955993499105318</v>
+        <v>0.2744361715888886</v>
       </c>
       <c r="E19">
-        <v>2.111492697388698</v>
+        <v>0.05520232106540135</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.3797124080834919</v>
+        <v>0.3677232976776992</v>
       </c>
       <c r="H19">
-        <v>0.2095207782949728</v>
+        <v>0.02677431451758139</v>
       </c>
       <c r="I19">
-        <v>0.0491035643545743</v>
+        <v>0.00245226289160172</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3200517657831412</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.3433895480263658</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.42863382239284</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.2000490834890059</v>
       </c>
       <c r="O19">
-        <v>1.197441247235076</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.397460229236415</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.304480739951714</v>
+        <v>1.610119897704465</v>
       </c>
       <c r="C20">
-        <v>1.556198974519702</v>
+        <v>0.1948528536845586</v>
       </c>
       <c r="D20">
-        <v>0.3078373848926219</v>
+        <v>0.285677224515652</v>
       </c>
       <c r="E20">
-        <v>2.206055199722897</v>
+        <v>0.09971205436747255</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.3964431837774924</v>
+        <v>0.4493882542459318</v>
       </c>
       <c r="H20">
-        <v>0.2143751750048324</v>
+        <v>0.000204114103480979</v>
       </c>
       <c r="I20">
-        <v>0.04841158065750761</v>
+        <v>0.002078892440552593</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.360178463212165</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.4033535096972187</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.436538794260827</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.3739867788168851</v>
       </c>
       <c r="O20">
-        <v>1.243247452323885</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.654723234955867</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.974080838425834</v>
+        <v>1.815262263818653</v>
       </c>
       <c r="C21">
-        <v>1.747418043225537</v>
+        <v>0.2050873150117383</v>
       </c>
       <c r="D21">
-        <v>0.3494682536409073</v>
+        <v>0.3228719740903045</v>
       </c>
       <c r="E21">
-        <v>2.531686809565102</v>
+        <v>0.1129914201860522</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4556473190140196</v>
+        <v>0.4765751664111946</v>
       </c>
       <c r="H21">
-        <v>0.2322398260513694</v>
+        <v>3.96665728363832E-05</v>
       </c>
       <c r="I21">
-        <v>0.04779371178970848</v>
+        <v>0.001710623742375184</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.3677481119556631</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.4121325582677464</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.606964374129149</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.4340241598050056</v>
       </c>
       <c r="O21">
-        <v>1.406734170613817</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.72855711284538</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.41418687354286</v>
+        <v>1.948659807353721</v>
       </c>
       <c r="C22">
-        <v>1.873153928892634</v>
+        <v>0.2121792586714975</v>
       </c>
       <c r="D22">
-        <v>0.3771113867218645</v>
+        <v>0.347380903908217</v>
       </c>
       <c r="E22">
-        <v>2.751421054290063</v>
+        <v>0.1193853673663199</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.4968409498996778</v>
+        <v>0.4929654032240336</v>
       </c>
       <c r="H22">
-        <v>0.2451952126320833</v>
+        <v>0.0002458428592926332</v>
       </c>
       <c r="I22">
-        <v>0.04878992946123262</v>
+        <v>0.001420561958450861</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.3720401470120436</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.416767356873315</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.719141656967366</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.4640746588782036</v>
       </c>
       <c r="O22">
-        <v>1.52155402033523</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.772511350858707</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.179037199438483</v>
+        <v>1.878840181441348</v>
       </c>
       <c r="C23">
-        <v>1.805967184037968</v>
+        <v>0.2076704576886073</v>
       </c>
       <c r="D23">
-        <v>0.3623143667355322</v>
+        <v>0.3342855133211913</v>
       </c>
       <c r="E23">
-        <v>2.633441895277144</v>
+        <v>0.1162388625714215</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.4746079643681185</v>
+        <v>0.4860331585202857</v>
       </c>
       <c r="H23">
-        <v>0.2381553569857431</v>
+        <v>0.0001155285168896736</v>
       </c>
       <c r="I23">
-        <v>0.04812148523091508</v>
+        <v>0.001243638138633152</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.3706783399401701</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.4158875496817629</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.657843110185553</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.4477322543476419</v>
       </c>
       <c r="O23">
-        <v>1.459486864731105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.754846296087919</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.293572098547543</v>
+        <v>1.612199576328379</v>
       </c>
       <c r="C24">
-        <v>1.553084502551087</v>
+        <v>0.191876400538753</v>
       </c>
       <c r="D24">
-        <v>0.3071635293978403</v>
+        <v>0.2851025249053265</v>
       </c>
       <c r="E24">
-        <v>2.20083490874859</v>
+        <v>0.1038704768540057</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.3955138098881434</v>
+        <v>0.457892994652596</v>
       </c>
       <c r="H24">
-        <v>0.2141030383791644</v>
+        <v>7.107398230243867E-05</v>
       </c>
       <c r="I24">
-        <v>0.04844346731093907</v>
+        <v>0.001568264902060079</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.3646406884582944</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.4105664069320305</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.428367839437129</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3865024094449439</v>
       </c>
       <c r="O24">
-        <v>1.24069793402856</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.682090822652896</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.346400298226172</v>
+        <v>1.324494628947292</v>
       </c>
       <c r="C25">
-        <v>1.282735785339071</v>
+        <v>0.1749714575979837</v>
       </c>
       <c r="D25">
-        <v>0.2492111230794052</v>
+        <v>0.2328099894644424</v>
       </c>
       <c r="E25">
-        <v>1.757619921321037</v>
+        <v>0.09047796557533871</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.3192420783386041</v>
+        <v>0.4298268948921375</v>
       </c>
       <c r="H25">
-        <v>0.1928974533217485</v>
+        <v>0.0009021221123711731</v>
       </c>
       <c r="I25">
-        <v>0.05400375359850251</v>
+        <v>0.002936633524198484</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.3595080889186306</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.4061662771976984</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.181324904410417</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.3207426069385377</v>
       </c>
       <c r="O25">
-        <v>1.033756128264088</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.61132318858111</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_4/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.115569416877975</v>
+        <v>1.09926328509664</v>
       </c>
       <c r="C2">
-        <v>0.1609118685354289</v>
+        <v>0.1546725392292672</v>
       </c>
       <c r="D2">
-        <v>0.1948231415809829</v>
+        <v>0.1951177032496503</v>
       </c>
       <c r="E2">
-        <v>0.08119217947291091</v>
+        <v>0.07636886010883615</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4154773745282512</v>
+        <v>0.3601144191125627</v>
       </c>
       <c r="H2">
-        <v>0.002172173044260761</v>
+        <v>0.001589997533011145</v>
       </c>
       <c r="I2">
-        <v>0.003966042357884003</v>
+        <v>0.002900072936992792</v>
       </c>
       <c r="J2">
-        <v>0.3591943494753664</v>
+        <v>0.3628000004043841</v>
       </c>
       <c r="K2">
-        <v>0.40799902022626</v>
+        <v>0.364355255693944</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1725680173392945</v>
       </c>
       <c r="M2">
-        <v>0.996192207565656</v>
+        <v>0.1056002851802482</v>
       </c>
       <c r="N2">
-        <v>0.271770637356056</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.020956517641821</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.280448961219335</v>
       </c>
       <c r="Q2">
-        <v>1.579837166795599</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.446352241003524</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9717357269251465</v>
+        <v>0.9597375318771526</v>
       </c>
       <c r="C3">
-        <v>0.1523375897589219</v>
+        <v>0.1430355521202245</v>
       </c>
       <c r="D3">
-        <v>0.1693200569507951</v>
+        <v>0.1696132163201156</v>
       </c>
       <c r="E3">
-        <v>0.07447644141869603</v>
+        <v>0.07051448220195766</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.4040655068729464</v>
+        <v>0.3541508180762065</v>
       </c>
       <c r="H3">
-        <v>0.003417966723712196</v>
+        <v>0.002592386127019952</v>
       </c>
       <c r="I3">
-        <v>0.005492332679375433</v>
+        <v>0.004014567375115075</v>
       </c>
       <c r="J3">
-        <v>0.3582397231349219</v>
+        <v>0.3610687698584201</v>
       </c>
       <c r="K3">
-        <v>0.4075246369985344</v>
+        <v>0.366891671319042</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1772213247428169</v>
       </c>
       <c r="M3">
-        <v>0.8725996286933366</v>
+        <v>0.1043232096414979</v>
       </c>
       <c r="N3">
-        <v>0.239034537467063</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.8928903234146901</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.2469540487940378</v>
       </c>
       <c r="Q3">
-        <v>1.553352929287243</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.432720398231254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8831606304681259</v>
+        <v>0.8737063833543743</v>
       </c>
       <c r="C4">
-        <v>0.147083697430034</v>
+        <v>0.1359787029699646</v>
       </c>
       <c r="D4">
-        <v>0.1537618296010095</v>
+        <v>0.1540484437397822</v>
       </c>
       <c r="E4">
-        <v>0.07031283257640908</v>
+        <v>0.06687161494370386</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3974118926319363</v>
+        <v>0.3508494276281482</v>
       </c>
       <c r="H4">
-        <v>0.004358295999560113</v>
+        <v>0.003358481217841158</v>
       </c>
       <c r="I4">
-        <v>0.006638608092282894</v>
+        <v>0.004874995832585327</v>
       </c>
       <c r="J4">
-        <v>0.3579030218898751</v>
+        <v>0.360076566396117</v>
       </c>
       <c r="K4">
-        <v>0.4074379466610125</v>
+        <v>0.3685797509150817</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1801471334899993</v>
       </c>
       <c r="M4">
-        <v>0.7966954214054738</v>
+        <v>0.1040773059419013</v>
       </c>
       <c r="N4">
-        <v>0.2189550391511119</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.8142810401481597</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.2264197451366812</v>
       </c>
       <c r="Q4">
-        <v>1.538354922861544</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.425294671412132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8466634553295478</v>
+        <v>0.8382312473074194</v>
       </c>
       <c r="C5">
-        <v>0.1451075055428177</v>
+        <v>0.1333172888508969</v>
       </c>
       <c r="D5">
-        <v>0.1474433807272391</v>
+        <v>0.1477261126924816</v>
       </c>
       <c r="E5">
-        <v>0.06853901086161507</v>
+        <v>0.06531184179774563</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3943018450593527</v>
+        <v>0.3491482271501098</v>
       </c>
       <c r="H5">
-        <v>0.004786546674548586</v>
+        <v>0.00370934974563536</v>
       </c>
       <c r="I5">
-        <v>0.007236728222157041</v>
+        <v>0.005360503027881158</v>
       </c>
       <c r="J5">
-        <v>0.3575740280690383</v>
+        <v>0.3594455314828906</v>
       </c>
       <c r="K5">
-        <v>0.4070251061108259</v>
+        <v>0.3689145694118885</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1811646217578229</v>
       </c>
       <c r="M5">
-        <v>0.7660950395002004</v>
+        <v>0.1040144218747834</v>
       </c>
       <c r="N5">
-        <v>0.2108471751411969</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.7825851846278056</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.2181280259052869</v>
       </c>
       <c r="Q5">
-        <v>1.530994300727002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.421054718755627</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8401912125784463</v>
+        <v>0.8319392398798584</v>
       </c>
       <c r="C6">
-        <v>0.1449814883783489</v>
+        <v>0.1331160754052405</v>
       </c>
       <c r="D6">
-        <v>0.1463945109934741</v>
+        <v>0.1466765719655712</v>
       </c>
       <c r="E6">
-        <v>0.06816224158178841</v>
+        <v>0.06497517513892248</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.3931998690369056</v>
+        <v>0.348331337007906</v>
       </c>
       <c r="H6">
-        <v>0.004863496363720299</v>
+        <v>0.003772606611632257</v>
       </c>
       <c r="I6">
-        <v>0.007444605492102241</v>
+        <v>0.005565188833004164</v>
       </c>
       <c r="J6">
-        <v>0.3572141710947676</v>
+        <v>0.3590438130456661</v>
       </c>
       <c r="K6">
-        <v>0.4064377518723852</v>
+        <v>0.3685027375904077</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1811010276652247</v>
       </c>
       <c r="M6">
-        <v>0.7614314833930109</v>
+        <v>0.1038926553904425</v>
       </c>
       <c r="N6">
-        <v>0.209588612934084</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.777735024744203</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.2168372548972997</v>
       </c>
       <c r="Q6">
-        <v>1.527891340877346</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.41860451990884</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8815512367985718</v>
+        <v>0.8722861851395862</v>
       </c>
       <c r="C7">
-        <v>0.1476111771618775</v>
+        <v>0.1364672959732616</v>
       </c>
       <c r="D7">
-        <v>0.1536737580834853</v>
+        <v>0.1539584103196034</v>
       </c>
       <c r="E7">
-        <v>0.07006593492359414</v>
+        <v>0.06665790330871602</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3957578781517128</v>
+        <v>0.3515995690423139</v>
       </c>
       <c r="H7">
-        <v>0.004372294043230029</v>
+        <v>0.003373585077543539</v>
       </c>
       <c r="I7">
-        <v>0.006918420583458484</v>
+        <v>0.005199689983480305</v>
       </c>
       <c r="J7">
-        <v>0.3570566962802459</v>
+        <v>0.3555037417144149</v>
       </c>
       <c r="K7">
-        <v>0.40600939867835</v>
+        <v>0.366804869877722</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.179297217577826</v>
       </c>
       <c r="M7">
-        <v>0.7974290929912513</v>
+        <v>0.1036008955893131</v>
       </c>
       <c r="N7">
-        <v>0.2190856811197506</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.8147722092404877</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.2264962836722475</v>
       </c>
       <c r="Q7">
-        <v>1.533074974141428</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.417664442780804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.064531534818911</v>
+        <v>1.050253488977091</v>
       </c>
       <c r="C8">
-        <v>0.158699844553837</v>
+        <v>0.1510900262151935</v>
       </c>
       <c r="D8">
-        <v>0.1860027307084806</v>
+        <v>0.1862905986147467</v>
       </c>
       <c r="E8">
-        <v>0.0785891412742572</v>
+        <v>0.07414301723325778</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4093423552446183</v>
+        <v>0.3635625703193952</v>
       </c>
       <c r="H8">
-        <v>0.00257222618318842</v>
+        <v>0.001917915459826447</v>
       </c>
       <c r="I8">
-        <v>0.004773674385177173</v>
+        <v>0.003637348705111343</v>
       </c>
       <c r="J8">
-        <v>0.3577081826691924</v>
+        <v>0.3489672318310184</v>
       </c>
       <c r="K8">
-        <v>0.4059235973777469</v>
+        <v>0.3619103841335694</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1726925927039638</v>
       </c>
       <c r="M8">
-        <v>0.9551100689709529</v>
+        <v>0.1040363656707317</v>
       </c>
       <c r="N8">
-        <v>0.2607985492832228</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.9775928145952548</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.2690517217916977</v>
       </c>
       <c r="Q8">
-        <v>1.563619823489404</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.42606000924151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.423509727922379</v>
+        <v>1.397965188424507</v>
       </c>
       <c r="C9">
-        <v>0.1796021004323478</v>
+        <v>0.179830139927347</v>
       </c>
       <c r="D9">
-        <v>0.2503439550308002</v>
+        <v>0.2505908693443217</v>
       </c>
       <c r="E9">
-        <v>0.09539981588567059</v>
+        <v>0.0887608076085975</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4418564519147736</v>
+        <v>0.3844687619028093</v>
       </c>
       <c r="H9">
-        <v>0.0005078496079355954</v>
+        <v>0.0003090601035584672</v>
       </c>
       <c r="I9">
-        <v>0.00190805640935654</v>
+        <v>0.001547915857885052</v>
       </c>
       <c r="J9">
-        <v>0.3625386247321103</v>
+        <v>0.3513892778382655</v>
       </c>
       <c r="K9">
-        <v>0.4099775235133087</v>
+        <v>0.3574641203768927</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1621543234502134</v>
       </c>
       <c r="M9">
-        <v>1.262395344219783</v>
+        <v>0.1103797066862136</v>
       </c>
       <c r="N9">
-        <v>0.3424228975530639</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.296045279893264</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.3525831586545536</v>
       </c>
       <c r="Q9">
-        <v>1.643350293096432</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.469045447829984</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.681622531937393</v>
+        <v>1.648719471018637</v>
       </c>
       <c r="C10">
-        <v>0.1976235476458257</v>
+        <v>0.2034690558934358</v>
       </c>
       <c r="D10">
-        <v>0.2983612592578169</v>
+        <v>0.2985173669147798</v>
       </c>
       <c r="E10">
-        <v>0.1024488412632287</v>
+        <v>0.09462406586536787</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4593850578136909</v>
+        <v>0.4083899093521381</v>
       </c>
       <c r="H10">
-        <v>0.0002063923828208303</v>
+        <v>0.0001882450464978369</v>
       </c>
       <c r="I10">
-        <v>0.001150474702138027</v>
+        <v>0.001186168896987638</v>
       </c>
       <c r="J10">
-        <v>0.3631340282430244</v>
+        <v>0.3304007206828459</v>
       </c>
       <c r="K10">
-        <v>0.4072518159668412</v>
+        <v>0.3469226166722734</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1519403707607125</v>
       </c>
       <c r="M10">
-        <v>1.493383169323351</v>
+        <v>0.1144701481231749</v>
       </c>
       <c r="N10">
-        <v>0.3852161885761376</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.533521075859397</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.3961747913590301</v>
       </c>
       <c r="Q10">
-        <v>1.682224559231059</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.468421357220819</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.759851282356976</v>
+        <v>1.730751480194726</v>
       </c>
       <c r="C11">
-        <v>0.2288270105213286</v>
+        <v>0.2369046748987103</v>
       </c>
       <c r="D11">
-        <v>0.3201638048421529</v>
+        <v>0.3202648434705679</v>
       </c>
       <c r="E11">
-        <v>0.06852417349336548</v>
+        <v>0.06310849198673729</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4010598555952356</v>
+        <v>0.3849557237844436</v>
       </c>
       <c r="H11">
-        <v>0.01878062972777883</v>
+        <v>0.01875775169110128</v>
       </c>
       <c r="I11">
-        <v>0.001558948763295653</v>
+        <v>0.001772659142407207</v>
       </c>
       <c r="J11">
-        <v>0.3294924775217396</v>
+        <v>0.2704384785340892</v>
       </c>
       <c r="K11">
-        <v>0.3538908307309789</v>
+        <v>0.2985631499498922</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.132794324647163</v>
       </c>
       <c r="M11">
-        <v>1.637566377406557</v>
+        <v>0.09847761172628822</v>
       </c>
       <c r="N11">
-        <v>0.2665550109336294</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.67335507262149</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.2745984299785391</v>
       </c>
       <c r="Q11">
-        <v>1.488338594176128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.27261051129372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.772475785695747</v>
+        <v>1.747711307115935</v>
       </c>
       <c r="C12">
-        <v>0.2544193310933025</v>
+        <v>0.262377513835176</v>
       </c>
       <c r="D12">
-        <v>0.3283592770845729</v>
+        <v>0.3284463546693104</v>
       </c>
       <c r="E12">
-        <v>0.04789767151995861</v>
+        <v>0.04427634725836782</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.3532830596827452</v>
+        <v>0.354254793156727</v>
       </c>
       <c r="H12">
-        <v>0.05747924943186433</v>
+        <v>0.05744398508642234</v>
       </c>
       <c r="I12">
-        <v>0.001542545243867544</v>
+        <v>0.001765742818094829</v>
       </c>
       <c r="J12">
-        <v>0.3033902433614557</v>
+        <v>0.2422230526603713</v>
       </c>
       <c r="K12">
-        <v>0.3152840887288697</v>
+        <v>0.2670476133819264</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1217062134215503</v>
       </c>
       <c r="M12">
-        <v>1.710308080517024</v>
+        <v>0.08636863445160259</v>
       </c>
       <c r="N12">
-        <v>0.1762849961080235</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.741501101511403</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1822103956716319</v>
       </c>
       <c r="Q12">
-        <v>1.332475096963677</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.132896947244447</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.733416287852151</v>
+        <v>1.713280085026753</v>
       </c>
       <c r="C13">
-        <v>0.2777013234751848</v>
+        <v>0.2845486140121949</v>
       </c>
       <c r="D13">
-        <v>0.3264064502626383</v>
+        <v>0.3265217708581076</v>
       </c>
       <c r="E13">
-        <v>0.03590051125732607</v>
+        <v>0.03373936272976907</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.3082114600330215</v>
+        <v>0.3096159255433335</v>
       </c>
       <c r="H13">
-        <v>0.1132812999909447</v>
+        <v>0.1132202405950977</v>
       </c>
       <c r="I13">
-        <v>0.001560545585482132</v>
+        <v>0.001743153036306566</v>
       </c>
       <c r="J13">
-        <v>0.2801617757385912</v>
+        <v>0.2328852731853353</v>
       </c>
       <c r="K13">
-        <v>0.2834298510799051</v>
+        <v>0.2445204785281483</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1146429685094539</v>
       </c>
       <c r="M13">
-        <v>1.733362176168015</v>
+        <v>0.07631062660146348</v>
       </c>
       <c r="N13">
-        <v>0.1033403476383867</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.76015514382695</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1076266828627297</v>
       </c>
       <c r="Q13">
-        <v>1.188270458701808</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1.022679039876579</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.682446582712799</v>
+        <v>1.665677168456995</v>
       </c>
       <c r="C14">
-        <v>0.2935571863522028</v>
+        <v>0.2991571723662787</v>
       </c>
       <c r="D14">
-        <v>0.3204434266069711</v>
+        <v>0.3205958285307702</v>
       </c>
       <c r="E14">
-        <v>0.03262325699997981</v>
+        <v>0.03131195064399916</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.2780998984796668</v>
+        <v>0.2738796331420303</v>
       </c>
       <c r="H14">
-        <v>0.1626849256213916</v>
+        <v>0.162596162259419</v>
       </c>
       <c r="I14">
-        <v>0.001689452789594093</v>
+        <v>0.001831440008873919</v>
       </c>
       <c r="J14">
-        <v>0.2652601137635102</v>
+        <v>0.2324951487419575</v>
       </c>
       <c r="K14">
-        <v>0.264503373970653</v>
+        <v>0.2324983699264092</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1111715645192657</v>
       </c>
       <c r="M14">
-        <v>1.727321507836024</v>
+        <v>0.07031482643808751</v>
       </c>
       <c r="N14">
-        <v>0.06313957054874919</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.751096460386464</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.06648845012115601</v>
       </c>
       <c r="Q14">
-        <v>1.093177565154576</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.9570698032035807</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.658706175579056</v>
+        <v>1.642837186623353</v>
       </c>
       <c r="C15">
-        <v>0.2967917318415942</v>
+        <v>0.3020324582753915</v>
       </c>
       <c r="D15">
-        <v>0.3168297078681945</v>
+        <v>0.3169992035327027</v>
       </c>
       <c r="E15">
-        <v>0.03247238913063621</v>
+        <v>0.03135886531420029</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.2705959185606659</v>
+        <v>0.2627843726516659</v>
       </c>
       <c r="H15">
-        <v>0.1752231317362742</v>
+        <v>0.1751201876996475</v>
       </c>
       <c r="I15">
-        <v>0.001858733092229059</v>
+        <v>0.001998656371348773</v>
       </c>
       <c r="J15">
-        <v>0.2618766494943685</v>
+        <v>0.2348731137378337</v>
       </c>
       <c r="K15">
-        <v>0.260556298874123</v>
+        <v>0.230550453807183</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.110723398397659</v>
       </c>
       <c r="M15">
-        <v>1.715456155470179</v>
+        <v>0.06905767783873351</v>
       </c>
       <c r="N15">
-        <v>0.05465862741816707</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.738540187384956</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.05781876722015511</v>
       </c>
       <c r="Q15">
-        <v>1.070150553462128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.9440356282165823</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.555536154806106</v>
+        <v>1.540475013259766</v>
       </c>
       <c r="C16">
-        <v>0.2837899198308804</v>
+        <v>0.2885380828503941</v>
       </c>
       <c r="D16">
-        <v>0.2963114462770875</v>
+        <v>0.2965502700803455</v>
       </c>
       <c r="E16">
-        <v>0.03211710606628815</v>
+        <v>0.0310959343461481</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.27139183371321</v>
+        <v>0.2454052552925958</v>
       </c>
       <c r="H16">
-        <v>0.162655394610411</v>
+        <v>0.1624674864939522</v>
       </c>
       <c r="I16">
-        <v>0.002270423281600209</v>
+        <v>0.002287648419691202</v>
       </c>
       <c r="J16">
-        <v>0.2657257925630958</v>
+        <v>0.2602017003615558</v>
       </c>
       <c r="K16">
-        <v>0.2673284991407971</v>
+        <v>0.2403588666023584</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1148680826067032</v>
       </c>
       <c r="M16">
-        <v>1.610558154631889</v>
+        <v>0.07109717397690751</v>
       </c>
       <c r="N16">
-        <v>0.0534095117458051</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.633955843814022</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.05678335077817565</v>
       </c>
       <c r="Q16">
-        <v>1.079698870296014</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.978270702138559</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.503506245152778</v>
+        <v>1.487524534439075</v>
       </c>
       <c r="C17">
-        <v>0.2652493912307534</v>
+        <v>0.2699685052491532</v>
       </c>
       <c r="D17">
-        <v>0.2838219695459685</v>
+        <v>0.2840872902564229</v>
       </c>
       <c r="E17">
-        <v>0.03270118658923649</v>
+        <v>0.03130471259855472</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.2877241728355173</v>
+        <v>0.2523559267698872</v>
       </c>
       <c r="H17">
-        <v>0.1249858768837413</v>
+        <v>0.1247441061728694</v>
       </c>
       <c r="I17">
-        <v>0.00256097988910664</v>
+        <v>0.002504285067796985</v>
       </c>
       <c r="J17">
-        <v>0.2765132347884744</v>
+        <v>0.279957333728575</v>
       </c>
       <c r="K17">
-        <v>0.2822460499470996</v>
+        <v>0.2542076155505253</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1203011415094473</v>
       </c>
       <c r="M17">
-        <v>1.533644503047014</v>
+        <v>0.07548976046146372</v>
       </c>
       <c r="N17">
-        <v>0.07170524436163817</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.558493456597205</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.07572938274905994</v>
       </c>
       <c r="Q17">
-        <v>1.136787819091708</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.03797570980052</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.49016625809503</v>
+        <v>1.471358532851127</v>
       </c>
       <c r="C18">
-        <v>0.2407598746407018</v>
+        <v>0.2457850416182623</v>
       </c>
       <c r="D18">
-        <v>0.2767279062653927</v>
+        <v>0.2769962489578006</v>
       </c>
       <c r="E18">
-        <v>0.03869221766790787</v>
+        <v>0.03631347502659743</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.321758744611131</v>
+        <v>0.278160966277845</v>
       </c>
       <c r="H18">
-        <v>0.07216377761216108</v>
+        <v>0.07191223928090551</v>
       </c>
       <c r="I18">
-        <v>0.002411554806443839</v>
+        <v>0.002282548039108434</v>
       </c>
       <c r="J18">
-        <v>0.2956713074859749</v>
+        <v>0.3010945408476502</v>
       </c>
       <c r="K18">
-        <v>0.3085664480309767</v>
+        <v>0.2759668630476302</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1286020911601309</v>
       </c>
       <c r="M18">
-        <v>1.471443699502345</v>
+        <v>0.08328390140003883</v>
       </c>
       <c r="N18">
-        <v>0.1185306703452369</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.499312612081326</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1238450400682254</v>
       </c>
       <c r="Q18">
-        <v>1.248986326744756</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.13750282322134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.506557008958083</v>
+        <v>1.483538899252551</v>
       </c>
       <c r="C19">
-        <v>0.2176724134673691</v>
+        <v>0.2229496659344363</v>
       </c>
       <c r="D19">
-        <v>0.2744361715888886</v>
+        <v>0.2746914251307544</v>
       </c>
       <c r="E19">
-        <v>0.05520232106540135</v>
+        <v>0.05117840073962121</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.3677232976776992</v>
+        <v>0.3155350851479994</v>
       </c>
       <c r="H19">
-        <v>0.02677431451758139</v>
+        <v>0.02656484768427703</v>
       </c>
       <c r="I19">
-        <v>0.00245226289160172</v>
+        <v>0.002375209444128501</v>
       </c>
       <c r="J19">
-        <v>0.3200517657831412</v>
+        <v>0.3230972852132155</v>
       </c>
       <c r="K19">
-        <v>0.3433895480263658</v>
+        <v>0.3034921806545832</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.138913774932055</v>
       </c>
       <c r="M19">
-        <v>1.42863382239284</v>
+        <v>0.09362706766820494</v>
       </c>
       <c r="N19">
-        <v>0.2000490834890059</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.46058823339888</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.2073053301113532</v>
       </c>
       <c r="Q19">
-        <v>1.397460229236415</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.262470994713468</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.610119897704465</v>
+        <v>1.57882907965913</v>
       </c>
       <c r="C20">
-        <v>0.1948528536845586</v>
+        <v>0.200174557825207</v>
       </c>
       <c r="D20">
-        <v>0.285677224515652</v>
+        <v>0.2858733717488349</v>
       </c>
       <c r="E20">
-        <v>0.09971205436747255</v>
+        <v>0.09219639580252093</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4493882542459318</v>
+        <v>0.3889010702311708</v>
       </c>
       <c r="H20">
-        <v>0.000204114103480979</v>
+        <v>0.0001464434343332321</v>
       </c>
       <c r="I20">
-        <v>0.002078892440552593</v>
+        <v>0.002178164585221687</v>
       </c>
       <c r="J20">
-        <v>0.360178463212165</v>
+        <v>0.34556096800506</v>
       </c>
       <c r="K20">
-        <v>0.4033535096972187</v>
+        <v>0.3474488402624516</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1537566054158077</v>
       </c>
       <c r="M20">
-        <v>1.436538794260827</v>
+        <v>0.1124095275134636</v>
       </c>
       <c r="N20">
-        <v>0.3739867788168851</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.475708638207522</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.3848746000611953</v>
       </c>
       <c r="Q20">
-        <v>1.654723234955867</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.462819054932709</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.815262263818653</v>
+        <v>1.779863620488157</v>
       </c>
       <c r="C21">
-        <v>0.2050873150117383</v>
+        <v>0.2117660219012123</v>
       </c>
       <c r="D21">
-        <v>0.3228719740903045</v>
+        <v>0.3229127349181766</v>
       </c>
       <c r="E21">
-        <v>0.1129914201860522</v>
+        <v>0.1043952976057696</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4765751664111946</v>
+        <v>0.4653208565628262</v>
       </c>
       <c r="H21">
-        <v>3.96665728363832E-05</v>
+        <v>7.568258415546758E-05</v>
       </c>
       <c r="I21">
-        <v>0.001710623742375184</v>
+        <v>0.002024412769510597</v>
       </c>
       <c r="J21">
-        <v>0.3677481119556631</v>
+        <v>0.2794468234518277</v>
       </c>
       <c r="K21">
-        <v>0.4121325582677464</v>
+        <v>0.3390894186758224</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1461780942201365</v>
       </c>
       <c r="M21">
-        <v>1.606964374129149</v>
+        <v>0.1158644741474504</v>
       </c>
       <c r="N21">
-        <v>0.4340241598050056</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.647796507943809</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.4451844269816831</v>
       </c>
       <c r="Q21">
-        <v>1.72855711284538</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.448219944618216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.948659807353721</v>
+        <v>1.911017643949236</v>
       </c>
       <c r="C22">
-        <v>0.2121792586714975</v>
+        <v>0.2195458540127504</v>
       </c>
       <c r="D22">
-        <v>0.347380903908217</v>
+        <v>0.3473011970647804</v>
       </c>
       <c r="E22">
-        <v>0.1193853673663199</v>
+        <v>0.1102923136807519</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.4929654032240336</v>
+        <v>0.5220543935339634</v>
       </c>
       <c r="H22">
-        <v>0.0002458428592926332</v>
+        <v>0.0002925682409407049</v>
       </c>
       <c r="I22">
-        <v>0.001420561958450861</v>
+        <v>0.001742823960813489</v>
       </c>
       <c r="J22">
-        <v>0.3720401470120436</v>
+        <v>0.2421378437280381</v>
       </c>
       <c r="K22">
-        <v>0.416767356873315</v>
+        <v>0.3322026159007407</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1409371325302207</v>
       </c>
       <c r="M22">
-        <v>1.719141656967366</v>
+        <v>0.1177797802842306</v>
       </c>
       <c r="N22">
-        <v>0.4640746588782036</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.760413171443616</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.4751525155960366</v>
       </c>
       <c r="Q22">
-        <v>1.772511350858707</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.431420271018851</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.878840181441348</v>
+        <v>1.841954280881993</v>
       </c>
       <c r="C23">
-        <v>0.2076704576886073</v>
+        <v>0.21486302950278</v>
       </c>
       <c r="D23">
-        <v>0.3342855133211913</v>
+        <v>0.3342791444606377</v>
       </c>
       <c r="E23">
-        <v>0.1162388625714215</v>
+        <v>0.1073312319587281</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.4860331585202857</v>
+        <v>0.4862653243402946</v>
       </c>
       <c r="H23">
-        <v>0.0001155285168896736</v>
+        <v>0.0001622168930033308</v>
       </c>
       <c r="I23">
-        <v>0.001243638138633152</v>
+        <v>0.001505323550461846</v>
       </c>
       <c r="J23">
-        <v>0.3706783399401701</v>
+        <v>0.2676615834066283</v>
       </c>
       <c r="K23">
-        <v>0.4158875496817629</v>
+        <v>0.3383804009277682</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1445366067478808</v>
       </c>
       <c r="M23">
-        <v>1.657843110185553</v>
+        <v>0.117799701952304</v>
       </c>
       <c r="N23">
-        <v>0.4477322543476419</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.699479767881911</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.4589856644308838</v>
       </c>
       <c r="Q23">
-        <v>1.754846296087919</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.452336296327672</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.612199576328379</v>
+        <v>1.580413480744483</v>
       </c>
       <c r="C24">
-        <v>0.191876400538753</v>
+        <v>0.1967304612231118</v>
       </c>
       <c r="D24">
-        <v>0.2851025249053265</v>
+        <v>0.2852970936374959</v>
       </c>
       <c r="E24">
-        <v>0.1038704768540057</v>
+        <v>0.09607091524962641</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.457892994652596</v>
+        <v>0.3957923942209902</v>
       </c>
       <c r="H24">
-        <v>7.107398230243867E-05</v>
+        <v>2.012352469571432E-05</v>
       </c>
       <c r="I24">
-        <v>0.001568264902060079</v>
+        <v>0.001571005324459307</v>
       </c>
       <c r="J24">
-        <v>0.3646406884582944</v>
+        <v>0.3499580692609214</v>
       </c>
       <c r="K24">
-        <v>0.4105664069320305</v>
+        <v>0.3533800402259928</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1559815392949737</v>
       </c>
       <c r="M24">
-        <v>1.428367839437129</v>
+        <v>0.1146296766252988</v>
       </c>
       <c r="N24">
-        <v>0.3865024094449439</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.467922209275997</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.3976695338578651</v>
       </c>
       <c r="Q24">
-        <v>1.682090822652896</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.486637397169744</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.324494628947292</v>
+        <v>1.30196427840832</v>
       </c>
       <c r="C25">
-        <v>0.1749714575979837</v>
+        <v>0.1734563292773004</v>
       </c>
       <c r="D25">
-        <v>0.2328099894644424</v>
+        <v>0.2330793501073174</v>
       </c>
       <c r="E25">
-        <v>0.09047796557533871</v>
+        <v>0.08444169855296835</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.4298268948921375</v>
+        <v>0.3725868262321583</v>
       </c>
       <c r="H25">
-        <v>0.0009021221123711731</v>
+        <v>0.0006012620914972455</v>
       </c>
       <c r="I25">
-        <v>0.002936633524198484</v>
+        <v>0.002476968522576506</v>
       </c>
       <c r="J25">
-        <v>0.3595080889186306</v>
+        <v>0.3544164467203785</v>
       </c>
       <c r="K25">
-        <v>0.4061662771976984</v>
+        <v>0.3570436617291826</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1643489153995255</v>
       </c>
       <c r="M25">
-        <v>1.181324904410417</v>
+        <v>0.1076677435141242</v>
       </c>
       <c r="N25">
-        <v>0.3207426069385377</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.212218296459667</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.3304393737111013</v>
       </c>
       <c r="Q25">
-        <v>1.61132318858111</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.452024104962433</v>
       </c>
     </row>
   </sheetData>
